--- a/Sistema de Gestión/SoA.xlsx
+++ b/Sistema de Gestión/SoA.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randrade\Documents\para github\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\randrade\Documents\para github\Sistema de Gestión\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B01ACE9C-38B2-4A77-AE79-68A3DE53DCAC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7B17F736-B7A9-48BE-8EE1-C105468439A4}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="14016" activeTab="1" xr2:uid="{AB84CF9B-41BF-4539-85A0-C410E6A42969}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="321">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="347" uniqueCount="330">
   <si>
     <t>ISO 27001:2013 Controles de Seguridad</t>
   </si>
@@ -272,9 +272,6 @@
   </si>
   <si>
     <t>9.2.2</t>
-  </si>
-  <si>
-    <t>Provisión de acceso a usuarios</t>
   </si>
   <si>
     <t>9.2.3</t>
@@ -1028,6 +1025,37 @@
   </si>
   <si>
     <t>- Sistema de Gestion de Seguridad de Informacion</t>
+  </si>
+  <si>
+    <t>La Dirección debe prestar un apoyo activo a la seguridad dentro de la organización a través de directrices claras, un compromiso demostrado, asignaciones explícitas y el reconocimiento de las responsabilidades de seguridad de la información.</t>
+  </si>
+  <si>
+    <t>Las funciones y áreas de responsabilidad conflictivas deben estar separadas para reducir las oportunidades de modificación no autorizada o involuntaria o de uso indebido de los activos de la organización.</t>
+  </si>
+  <si>
+    <t>Deben mantenerse los contactos adecuados con las autoridades competentes</t>
+  </si>
+  <si>
+    <t>Se mantendrán los contactos adecuados con grupos de interés especiales u otros foros de seguridad especializados y asociaciones profesionales.</t>
+  </si>
+  <si>
+    <t>La seguridad de la información se abordará en la gestión de proyectos, independientemente del tipo de proyecto.</t>
+  </si>
+  <si>
+    <t>- Proceso de Gestión de Proyectos</t>
+  </si>
+  <si>
+    <t>- Sistema de Gestión de Seguridad de Informacion</t>
+  </si>
+  <si>
+    <t>- Sistema de Gestión de Seguridad de Informacion
+- Gestion de Comunicaciones y Operaciones</t>
+  </si>
+  <si>
+    <t>- Contactos con Grupos Interesados</t>
+  </si>
+  <si>
+    <t>Gestión de acceso a usuarios</t>
   </si>
 </sst>
 </file>
@@ -1241,7 +1269,7 @@
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="45">
+  <cellXfs count="46">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1274,15 +1302,6 @@
     <xf numFmtId="0" fontId="5" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="3" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -1304,41 +1323,14 @@
     <xf numFmtId="0" fontId="4" fillId="4" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="17" fontId="6" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="right"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
@@ -1364,6 +1356,45 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="4" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="5" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="6" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="7" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="0" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="8" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="2" borderId="1" xfId="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="1" xfId="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="1" quotePrefix="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="3">
@@ -1701,210 +1732,210 @@
   </cols>
   <sheetData>
     <row r="5" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B5" s="25" t="s">
-        <v>282</v>
-      </c>
-      <c r="C5" s="25"/>
-      <c r="D5" s="25"/>
-      <c r="E5" s="25"/>
-      <c r="F5" s="25"/>
-      <c r="G5" s="25"/>
+      <c r="B5" s="35" t="s">
+        <v>281</v>
+      </c>
+      <c r="C5" s="35"/>
+      <c r="D5" s="35"/>
+      <c r="E5" s="35"/>
+      <c r="F5" s="35"/>
+      <c r="G5" s="35"/>
     </row>
     <row r="6" spans="2:7" ht="15" thickBot="1" x14ac:dyDescent="0.35"/>
     <row r="7" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B7" s="26" t="s">
+      <c r="B7" s="36" t="s">
+        <v>282</v>
+      </c>
+      <c r="C7" s="37"/>
+      <c r="D7" s="37"/>
+      <c r="E7" s="37"/>
+      <c r="F7" s="37"/>
+      <c r="G7" s="38"/>
+    </row>
+    <row r="8" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B8" s="39"/>
+      <c r="C8" s="40"/>
+      <c r="D8" s="40"/>
+      <c r="E8" s="40"/>
+      <c r="F8" s="40"/>
+      <c r="G8" s="41"/>
+    </row>
+    <row r="9" spans="2:7" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B9" s="21" t="s">
         <v>283</v>
       </c>
-      <c r="C7" s="27"/>
-      <c r="D7" s="27"/>
-      <c r="E7" s="27"/>
-      <c r="F7" s="27"/>
-      <c r="G7" s="28"/>
-    </row>
-    <row r="8" spans="2:7" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B8" s="29"/>
-      <c r="C8" s="24"/>
-      <c r="D8" s="24"/>
-      <c r="E8" s="24"/>
-      <c r="F8" s="24"/>
-      <c r="G8" s="30"/>
-    </row>
-    <row r="9" spans="2:7" ht="85.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B9" s="31" t="s">
+      <c r="C9" s="33" t="s">
+        <v>289</v>
+      </c>
+      <c r="D9" s="33"/>
+      <c r="E9" s="33"/>
+      <c r="F9" s="33"/>
+      <c r="G9" s="33"/>
+    </row>
+    <row r="10" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B10" s="21" t="s">
         <v>284</v>
       </c>
-      <c r="C9" s="32" t="s">
+      <c r="C10" s="33" t="s">
         <v>290</v>
       </c>
-      <c r="D9" s="32"/>
-      <c r="E9" s="32"/>
-      <c r="F9" s="32"/>
-      <c r="G9" s="32"/>
-    </row>
-    <row r="10" spans="2:7" ht="72" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B10" s="31" t="s">
+      <c r="D10" s="33"/>
+      <c r="E10" s="33"/>
+      <c r="F10" s="33"/>
+      <c r="G10" s="33"/>
+    </row>
+    <row r="11" spans="2:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B11" s="21" t="s">
         <v>285</v>
       </c>
-      <c r="C10" s="32" t="s">
+      <c r="C11" s="33" t="s">
         <v>291</v>
       </c>
-      <c r="D10" s="32"/>
-      <c r="E10" s="32"/>
-      <c r="F10" s="32"/>
-      <c r="G10" s="32"/>
-    </row>
-    <row r="11" spans="2:7" ht="74.400000000000006" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B11" s="31" t="s">
+      <c r="D11" s="33"/>
+      <c r="E11" s="33"/>
+      <c r="F11" s="33"/>
+      <c r="G11" s="33"/>
+    </row>
+    <row r="12" spans="2:7" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B12" s="21" t="s">
         <v>286</v>
       </c>
-      <c r="C11" s="32" t="s">
+      <c r="C12" s="33" t="s">
         <v>292</v>
       </c>
-      <c r="D11" s="32"/>
-      <c r="E11" s="32"/>
-      <c r="F11" s="32"/>
-      <c r="G11" s="32"/>
-    </row>
-    <row r="12" spans="2:7" ht="88.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B12" s="31" t="s">
+      <c r="D12" s="33"/>
+      <c r="E12" s="33"/>
+      <c r="F12" s="33"/>
+      <c r="G12" s="33"/>
+    </row>
+    <row r="13" spans="2:7" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B13" s="21" t="s">
         <v>287</v>
       </c>
-      <c r="C12" s="32" t="s">
+      <c r="C13" s="33" t="s">
         <v>293</v>
       </c>
-      <c r="D12" s="32"/>
-      <c r="E12" s="32"/>
-      <c r="F12" s="32"/>
-      <c r="G12" s="32"/>
-    </row>
-    <row r="13" spans="2:7" ht="73.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B13" s="31" t="s">
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+    </row>
+    <row r="14" spans="2:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B14" s="21" t="s">
         <v>288</v>
       </c>
-      <c r="C13" s="32" t="s">
+      <c r="C14" s="33" t="s">
         <v>294</v>
       </c>
-      <c r="D13" s="32"/>
-      <c r="E13" s="32"/>
-      <c r="F13" s="32"/>
-      <c r="G13" s="32"/>
-    </row>
-    <row r="14" spans="2:7" ht="29.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B14" s="31" t="s">
-        <v>289</v>
-      </c>
-      <c r="C14" s="32" t="s">
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+    </row>
+    <row r="15" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B15" s="21" t="s">
         <v>295</v>
       </c>
-      <c r="D14" s="32"/>
-      <c r="E14" s="32"/>
-      <c r="F14" s="32"/>
-      <c r="G14" s="32"/>
-    </row>
-    <row r="15" spans="2:7" ht="28.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B15" s="31" t="s">
+      <c r="C15" s="33" t="s">
         <v>296</v>
       </c>
-      <c r="C15" s="32" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33"/>
+      <c r="G15" s="33"/>
+    </row>
+    <row r="18" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
+      <c r="B18" s="22" t="s">
         <v>297</v>
       </c>
-      <c r="D15" s="32"/>
-      <c r="E15" s="32"/>
-      <c r="F15" s="32"/>
-      <c r="G15" s="32"/>
-    </row>
-    <row r="18" spans="2:11" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B18" s="33" t="s">
+      <c r="K18" s="23"/>
+    </row>
+    <row r="19" spans="2:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B19" s="34" t="s">
         <v>298</v>
       </c>
-      <c r="K18" s="34"/>
-    </row>
-    <row r="19" spans="2:11" ht="39.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B19" s="35" t="s">
-        <v>299</v>
-      </c>
-      <c r="C19" s="35"/>
-      <c r="D19" s="35"/>
-      <c r="E19" s="35"/>
-      <c r="F19" s="35"/>
-      <c r="G19" s="35"/>
-      <c r="H19" s="35"/>
-      <c r="I19" s="35"/>
-      <c r="J19" s="35"/>
-      <c r="K19" s="35"/>
+      <c r="C19" s="34"/>
+      <c r="D19" s="34"/>
+      <c r="E19" s="34"/>
+      <c r="F19" s="34"/>
+      <c r="G19" s="34"/>
+      <c r="H19" s="34"/>
+      <c r="I19" s="34"/>
+      <c r="J19" s="34"/>
+      <c r="K19" s="34"/>
     </row>
     <row r="23" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B23" s="39" t="s">
+      <c r="B23" s="27" t="s">
+        <v>303</v>
+      </c>
+    </row>
+    <row r="25" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="B25" s="26" t="s">
         <v>304</v>
       </c>
-    </row>
-    <row r="25" spans="2:11" ht="14.4" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B25" s="38" t="s">
+      <c r="C25" s="26" t="s">
         <v>305</v>
       </c>
-      <c r="C25" s="38" t="s">
+      <c r="D25" s="26" t="s">
         <v>306</v>
       </c>
-      <c r="D25" s="38" t="s">
+      <c r="E25" s="26" t="s">
         <v>307</v>
       </c>
-      <c r="E25" s="38" t="s">
+      <c r="F25" s="26" t="s">
         <v>308</v>
       </c>
-      <c r="F25" s="38" t="s">
+    </row>
+    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B26" s="25">
+        <v>44696</v>
+      </c>
+      <c r="C26" s="24">
+        <v>0.1</v>
+      </c>
+      <c r="D26" s="24" t="s">
         <v>309</v>
       </c>
-    </row>
-    <row r="26" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B26" s="37">
-        <v>44696</v>
-      </c>
-      <c r="C26" s="36">
-        <v>0.1</v>
-      </c>
-      <c r="D26" s="36" t="s">
+      <c r="E26" s="24" t="s">
         <v>310</v>
       </c>
-      <c r="E26" s="36" t="s">
+      <c r="F26" s="24" t="s">
         <v>311</v>
       </c>
-      <c r="F26" s="36" t="s">
+    </row>
+    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B27" s="24"/>
+      <c r="C27" s="24"/>
+      <c r="D27" s="24"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+    </row>
+    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B28" s="24"/>
+      <c r="C28" s="24"/>
+      <c r="D28" s="24"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="24"/>
+    </row>
+    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B29" s="24"/>
+      <c r="C29" s="24"/>
+      <c r="D29" s="24"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="24"/>
+    </row>
+    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
+      <c r="B30" s="24"/>
+      <c r="C30" s="24"/>
+      <c r="D30" s="24"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="24"/>
+    </row>
+    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
+      <c r="B33" s="26" t="s">
         <v>312</v>
       </c>
-    </row>
-    <row r="27" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B27" s="36"/>
-      <c r="C27" s="36"/>
-      <c r="D27" s="36"/>
-      <c r="E27" s="36"/>
-      <c r="F27" s="36"/>
-    </row>
-    <row r="28" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B28" s="36"/>
-      <c r="C28" s="36"/>
-      <c r="D28" s="36"/>
-      <c r="E28" s="36"/>
-      <c r="F28" s="36"/>
-    </row>
-    <row r="29" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B29" s="36"/>
-      <c r="C29" s="36"/>
-      <c r="D29" s="36"/>
-      <c r="E29" s="36"/>
-      <c r="F29" s="36"/>
-    </row>
-    <row r="30" spans="2:11" x14ac:dyDescent="0.3">
-      <c r="B30" s="36"/>
-      <c r="C30" s="36"/>
-      <c r="D30" s="36"/>
-      <c r="E30" s="36"/>
-      <c r="F30" s="36"/>
-    </row>
-    <row r="33" spans="2:3" x14ac:dyDescent="0.3">
-      <c r="B33" s="38" t="s">
-        <v>313</v>
-      </c>
-      <c r="C33" s="37">
+      <c r="C33" s="25">
         <v>44713</v>
       </c>
     </row>
@@ -1930,8 +1961,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{6750C165-9584-46CC-A5D1-F8AE4F4DE72E}">
   <dimension ref="B2:L167"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="L8" sqref="L8"/>
+    <sheetView tabSelected="1" topLeftCell="A59" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="D52" sqref="D52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1950,50 +1981,50 @@
   </cols>
   <sheetData>
     <row r="2" spans="2:12" ht="49.8" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="B2" s="16" t="s">
+      <c r="B2" s="42" t="s">
         <v>0</v>
       </c>
-      <c r="C2" s="16"/>
-      <c r="D2" s="16"/>
-      <c r="E2" s="16" t="s">
+      <c r="C2" s="42"/>
+      <c r="D2" s="42"/>
+      <c r="E2" s="42" t="s">
         <v>1</v>
       </c>
-      <c r="F2" s="16" t="s">
-        <v>317</v>
-      </c>
-      <c r="G2" s="16" t="s">
+      <c r="F2" s="42" t="s">
         <v>316</v>
       </c>
-      <c r="H2" s="16"/>
-      <c r="I2" s="16"/>
-      <c r="J2" s="16"/>
-      <c r="K2" s="16"/>
-      <c r="L2" s="16" t="s">
+      <c r="G2" s="42" t="s">
+        <v>315</v>
+      </c>
+      <c r="H2" s="42"/>
+      <c r="I2" s="42"/>
+      <c r="J2" s="42"/>
+      <c r="K2" s="42"/>
+      <c r="L2" s="42" t="s">
         <v>3</v>
       </c>
     </row>
     <row r="3" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B3" s="16"/>
-      <c r="C3" s="16"/>
-      <c r="D3" s="16"/>
-      <c r="E3" s="16"/>
-      <c r="F3" s="16"/>
+      <c r="B3" s="42"/>
+      <c r="C3" s="42"/>
+      <c r="D3" s="42"/>
+      <c r="E3" s="42"/>
+      <c r="F3" s="42"/>
       <c r="G3" s="1" t="s">
+        <v>299</v>
+      </c>
+      <c r="H3" s="1" t="s">
         <v>300</v>
       </c>
-      <c r="H3" s="1" t="s">
+      <c r="I3" s="1" t="s">
         <v>301</v>
       </c>
-      <c r="I3" s="1" t="s">
+      <c r="J3" s="1" t="s">
         <v>302</v>
-      </c>
-      <c r="J3" s="1" t="s">
-        <v>303</v>
       </c>
       <c r="K3" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="L3" s="16"/>
+      <c r="L3" s="42"/>
     </row>
     <row r="4" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B4" s="2" t="s">
@@ -2002,91 +2033,91 @@
       <c r="C4" s="10" t="s">
         <v>5</v>
       </c>
-      <c r="D4" s="17" t="s">
+      <c r="D4" s="14" t="s">
         <v>6</v>
       </c>
       <c r="E4" s="11"/>
       <c r="F4" s="11"/>
-      <c r="G4" s="40"/>
-      <c r="H4" s="40"/>
-      <c r="I4" s="40"/>
-      <c r="J4" s="40"/>
-      <c r="K4" s="40"/>
+      <c r="G4" s="28"/>
+      <c r="H4" s="28"/>
+      <c r="I4" s="28"/>
+      <c r="J4" s="28"/>
+      <c r="K4" s="28"/>
       <c r="L4" s="11"/>
     </row>
     <row r="5" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B5" s="14" t="s">
+      <c r="B5" s="43" t="s">
         <v>7</v>
       </c>
-      <c r="C5" s="23">
+      <c r="C5" s="20">
         <v>5.0999999999999996</v>
       </c>
-      <c r="D5" s="18" t="s">
+      <c r="D5" s="15" t="s">
         <v>8</v>
       </c>
       <c r="E5" s="3"/>
       <c r="F5" s="3"/>
-      <c r="G5" s="41"/>
-      <c r="H5" s="41"/>
-      <c r="I5" s="41"/>
-      <c r="J5" s="41"/>
-      <c r="K5" s="41"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="29"/>
       <c r="L5" s="3"/>
     </row>
     <row r="6" spans="2:12" ht="140.4" x14ac:dyDescent="0.3">
-      <c r="B6" s="14"/>
+      <c r="B6" s="43"/>
       <c r="C6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="D6" s="19" t="s">
+      <c r="D6" s="16" t="s">
         <v>10</v>
       </c>
-      <c r="E6" s="43" t="s">
-        <v>315</v>
-      </c>
-      <c r="F6" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="G6" s="42"/>
-      <c r="H6" s="42" t="s">
+      <c r="E6" s="31" t="s">
         <v>314</v>
       </c>
-      <c r="I6" s="42"/>
-      <c r="J6" s="42"/>
-      <c r="K6" s="42"/>
-      <c r="L6" s="44" t="s">
-        <v>319</v>
+      <c r="F6" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="30"/>
+      <c r="L6" s="32" t="s">
+        <v>318</v>
       </c>
     </row>
     <row r="7" spans="2:12" ht="187.2" x14ac:dyDescent="0.3">
-      <c r="B7" s="14"/>
+      <c r="B7" s="43"/>
       <c r="C7" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="D7" s="19" t="s">
+      <c r="D7" s="16" t="s">
         <v>12</v>
       </c>
-      <c r="E7" s="43" t="s">
-        <v>318</v>
-      </c>
-      <c r="F7" s="42" t="s">
-        <v>286</v>
-      </c>
-      <c r="G7" s="42"/>
-      <c r="H7" s="42" t="s">
-        <v>314</v>
-      </c>
-      <c r="I7" s="42"/>
-      <c r="J7" s="42"/>
-      <c r="K7" s="42"/>
-      <c r="L7" s="44" t="s">
-        <v>320</v>
+      <c r="E7" s="31" t="s">
+        <v>317</v>
+      </c>
+      <c r="F7" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G7" s="30"/>
+      <c r="H7" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="I7" s="30"/>
+      <c r="J7" s="30"/>
+      <c r="K7" s="30"/>
+      <c r="L7" s="32" t="s">
+        <v>319</v>
       </c>
     </row>
     <row r="8" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B8" s="12"/>
       <c r="C8" s="6"/>
-      <c r="D8" s="20"/>
+      <c r="D8" s="17"/>
       <c r="E8" s="8"/>
       <c r="F8" s="8"/>
       <c r="G8" s="12"/>
@@ -2097,164 +2128,206 @@
       <c r="L8" s="8"/>
     </row>
     <row r="9" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B9" s="14" t="s">
+      <c r="B9" s="43" t="s">
         <v>13</v>
       </c>
-      <c r="C9" s="23">
+      <c r="C9" s="20">
         <v>6.1</v>
       </c>
-      <c r="D9" s="18" t="s">
+      <c r="D9" s="15" t="s">
         <v>14</v>
       </c>
       <c r="E9" s="3"/>
       <c r="F9" s="3"/>
-      <c r="G9" s="41"/>
-      <c r="H9" s="41"/>
-      <c r="I9" s="41"/>
-      <c r="J9" s="41"/>
-      <c r="K9" s="41"/>
+      <c r="G9" s="29"/>
+      <c r="H9" s="29"/>
+      <c r="I9" s="29"/>
+      <c r="J9" s="29"/>
+      <c r="K9" s="29"/>
       <c r="L9" s="3"/>
     </row>
-    <row r="10" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B10" s="14"/>
+    <row r="10" spans="2:12" ht="218.4" x14ac:dyDescent="0.3">
+      <c r="B10" s="43"/>
       <c r="C10" s="4" t="s">
         <v>15</v>
       </c>
-      <c r="D10" s="19" t="s">
+      <c r="D10" s="16" t="s">
         <v>16</v>
       </c>
-      <c r="E10" s="5"/>
-      <c r="F10" s="42"/>
-      <c r="G10" s="42"/>
-      <c r="H10" s="42"/>
-      <c r="I10" s="42"/>
-      <c r="J10" s="42"/>
-      <c r="K10" s="42"/>
-      <c r="L10" s="5"/>
-    </row>
-    <row r="11" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B11" s="14"/>
+      <c r="E10" s="31" t="s">
+        <v>320</v>
+      </c>
+      <c r="F10" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G10" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="H10" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="I10" s="30"/>
+      <c r="J10" s="30"/>
+      <c r="K10" s="30"/>
+      <c r="L10" s="32" t="s">
+        <v>319</v>
+      </c>
+    </row>
+    <row r="11" spans="2:12" ht="187.2" x14ac:dyDescent="0.3">
+      <c r="B11" s="43"/>
       <c r="C11" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="D11" s="19" t="s">
+      <c r="D11" s="16" t="s">
         <v>18</v>
       </c>
-      <c r="E11" s="5"/>
-      <c r="F11" s="42"/>
-      <c r="G11" s="42"/>
-      <c r="H11" s="42"/>
-      <c r="I11" s="42"/>
-      <c r="J11" s="42"/>
-      <c r="K11" s="42"/>
-      <c r="L11" s="5"/>
-    </row>
-    <row r="12" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B12" s="14"/>
+      <c r="E11" s="31" t="s">
+        <v>321</v>
+      </c>
+      <c r="F11" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G11" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="H11" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="I11" s="30"/>
+      <c r="J11" s="30"/>
+      <c r="K11" s="30"/>
+      <c r="L11" s="45" t="s">
+        <v>327</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="78" x14ac:dyDescent="0.3">
+      <c r="B12" s="43"/>
       <c r="C12" s="4" t="s">
         <v>19</v>
       </c>
-      <c r="D12" s="19" t="s">
+      <c r="D12" s="16" t="s">
         <v>20</v>
       </c>
-      <c r="E12" s="5"/>
-      <c r="F12" s="42"/>
-      <c r="G12" s="42"/>
-      <c r="H12" s="42"/>
-      <c r="I12" s="42"/>
-      <c r="J12" s="42"/>
-      <c r="K12" s="42"/>
-      <c r="L12" s="5"/>
-    </row>
-    <row r="13" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B13" s="14"/>
+      <c r="E12" s="31" t="s">
+        <v>322</v>
+      </c>
+      <c r="F12" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G12" s="30"/>
+      <c r="H12" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="I12" s="30"/>
+      <c r="J12" s="30"/>
+      <c r="K12" s="30"/>
+      <c r="L12" s="32" t="s">
+        <v>326</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="140.4" x14ac:dyDescent="0.3">
+      <c r="B13" s="43"/>
       <c r="C13" s="4" t="s">
         <v>21</v>
       </c>
-      <c r="D13" s="19" t="s">
+      <c r="D13" s="16" t="s">
         <v>22</v>
       </c>
-      <c r="E13" s="5"/>
-      <c r="F13" s="42"/>
-      <c r="G13" s="42"/>
-      <c r="H13" s="42"/>
-      <c r="I13" s="42"/>
-      <c r="J13" s="42"/>
-      <c r="K13" s="42"/>
-      <c r="L13" s="5"/>
-    </row>
-    <row r="14" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B14" s="14"/>
+      <c r="E13" s="31" t="s">
+        <v>323</v>
+      </c>
+      <c r="F13" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G13" s="30"/>
+      <c r="H13" s="30"/>
+      <c r="I13" s="30"/>
+      <c r="J13" s="30"/>
+      <c r="K13" s="31"/>
+      <c r="L13" s="32" t="s">
+        <v>328</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="93.6" x14ac:dyDescent="0.3">
+      <c r="B14" s="43"/>
       <c r="C14" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="D14" s="19" t="s">
+      <c r="D14" s="16" t="s">
         <v>24</v>
       </c>
-      <c r="E14" s="5"/>
-      <c r="F14" s="42"/>
-      <c r="G14" s="42"/>
-      <c r="H14" s="42"/>
-      <c r="I14" s="42"/>
-      <c r="J14" s="42"/>
-      <c r="K14" s="42"/>
-      <c r="L14" s="5"/>
+      <c r="E14" s="31" t="s">
+        <v>324</v>
+      </c>
+      <c r="F14" s="30" t="s">
+        <v>285</v>
+      </c>
+      <c r="G14" s="30"/>
+      <c r="H14" s="30" t="s">
+        <v>313</v>
+      </c>
+      <c r="I14" s="30"/>
+      <c r="J14" s="30"/>
+      <c r="K14" s="30"/>
+      <c r="L14" s="32" t="s">
+        <v>325</v>
+      </c>
     </row>
     <row r="15" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B15" s="14"/>
-      <c r="C15" s="23">
+      <c r="B15" s="43"/>
+      <c r="C15" s="20">
         <v>6.2</v>
       </c>
-      <c r="D15" s="18" t="s">
+      <c r="D15" s="15" t="s">
         <v>25</v>
       </c>
       <c r="E15" s="3"/>
       <c r="F15" s="3"/>
-      <c r="G15" s="41"/>
-      <c r="H15" s="41"/>
-      <c r="I15" s="41"/>
-      <c r="J15" s="41"/>
-      <c r="K15" s="41"/>
+      <c r="G15" s="29"/>
+      <c r="H15" s="29"/>
+      <c r="I15" s="29"/>
+      <c r="J15" s="29"/>
+      <c r="K15" s="29"/>
       <c r="L15" s="3"/>
     </row>
     <row r="16" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B16" s="14"/>
+      <c r="B16" s="43"/>
       <c r="C16" s="4" t="s">
         <v>26</v>
       </c>
-      <c r="D16" s="19" t="s">
+      <c r="D16" s="16" t="s">
         <v>27</v>
       </c>
       <c r="E16" s="5"/>
       <c r="F16" s="5"/>
-      <c r="G16" s="42"/>
-      <c r="H16" s="42"/>
-      <c r="I16" s="42"/>
-      <c r="J16" s="42"/>
-      <c r="K16" s="42"/>
+      <c r="G16" s="30"/>
+      <c r="H16" s="30"/>
+      <c r="I16" s="30"/>
+      <c r="J16" s="30"/>
+      <c r="K16" s="30"/>
       <c r="L16" s="5"/>
     </row>
     <row r="17" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B17" s="14"/>
+      <c r="B17" s="43"/>
       <c r="C17" s="4" t="s">
         <v>28</v>
       </c>
-      <c r="D17" s="19" t="s">
+      <c r="D17" s="16" t="s">
         <v>29</v>
       </c>
       <c r="E17" s="5"/>
       <c r="F17" s="5"/>
-      <c r="G17" s="42"/>
-      <c r="H17" s="42"/>
-      <c r="I17" s="42"/>
-      <c r="J17" s="42"/>
-      <c r="K17" s="42"/>
+      <c r="G17" s="30"/>
+      <c r="H17" s="30"/>
+      <c r="I17" s="30"/>
+      <c r="J17" s="30"/>
+      <c r="K17" s="30"/>
       <c r="L17" s="5"/>
     </row>
     <row r="18" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B18" s="6"/>
       <c r="C18" s="6"/>
-      <c r="D18" s="20"/>
+      <c r="D18" s="17"/>
       <c r="E18" s="8"/>
       <c r="F18" s="8"/>
       <c r="G18" s="12"/>
@@ -2265,164 +2338,164 @@
       <c r="L18" s="8"/>
     </row>
     <row r="19" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B19" s="14" t="s">
+      <c r="B19" s="43" t="s">
         <v>30</v>
       </c>
-      <c r="C19" s="23">
+      <c r="C19" s="20">
         <v>7.1</v>
       </c>
-      <c r="D19" s="18" t="s">
+      <c r="D19" s="15" t="s">
         <v>31</v>
       </c>
       <c r="E19" s="3"/>
       <c r="F19" s="3"/>
-      <c r="G19" s="41"/>
-      <c r="H19" s="41"/>
-      <c r="I19" s="41"/>
-      <c r="J19" s="41"/>
-      <c r="K19" s="41"/>
+      <c r="G19" s="29"/>
+      <c r="H19" s="29"/>
+      <c r="I19" s="29"/>
+      <c r="J19" s="29"/>
+      <c r="K19" s="29"/>
       <c r="L19" s="3"/>
     </row>
     <row r="20" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B20" s="14"/>
+      <c r="B20" s="43"/>
       <c r="C20" s="4" t="s">
         <v>32</v>
       </c>
-      <c r="D20" s="19" t="s">
+      <c r="D20" s="16" t="s">
         <v>33</v>
       </c>
       <c r="E20" s="5"/>
       <c r="F20" s="5"/>
-      <c r="G20" s="42"/>
-      <c r="H20" s="42"/>
-      <c r="I20" s="42"/>
-      <c r="J20" s="42"/>
-      <c r="K20" s="42"/>
+      <c r="G20" s="30"/>
+      <c r="H20" s="30"/>
+      <c r="I20" s="30"/>
+      <c r="J20" s="30"/>
+      <c r="K20" s="30"/>
       <c r="L20" s="5"/>
     </row>
     <row r="21" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B21" s="14"/>
+      <c r="B21" s="43"/>
       <c r="C21" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D21" s="19" t="s">
+      <c r="D21" s="16" t="s">
         <v>35</v>
       </c>
       <c r="E21" s="5"/>
       <c r="F21" s="5"/>
-      <c r="G21" s="42"/>
-      <c r="H21" s="42"/>
-      <c r="I21" s="42"/>
-      <c r="J21" s="42"/>
-      <c r="K21" s="42"/>
+      <c r="G21" s="30"/>
+      <c r="H21" s="30"/>
+      <c r="I21" s="30"/>
+      <c r="J21" s="30"/>
+      <c r="K21" s="30"/>
       <c r="L21" s="5"/>
     </row>
     <row r="22" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B22" s="14"/>
-      <c r="C22" s="23">
+      <c r="B22" s="43"/>
+      <c r="C22" s="20">
         <v>7.2</v>
       </c>
-      <c r="D22" s="18" t="s">
+      <c r="D22" s="15" t="s">
         <v>36</v>
       </c>
       <c r="E22" s="3"/>
       <c r="F22" s="3"/>
-      <c r="G22" s="41"/>
-      <c r="H22" s="41"/>
-      <c r="I22" s="41"/>
-      <c r="J22" s="41"/>
-      <c r="K22" s="41"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="29"/>
+      <c r="K22" s="29"/>
       <c r="L22" s="3"/>
     </row>
     <row r="23" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B23" s="14"/>
+      <c r="B23" s="43"/>
       <c r="C23" s="4" t="s">
         <v>37</v>
       </c>
-      <c r="D23" s="19" t="s">
+      <c r="D23" s="16" t="s">
         <v>38</v>
       </c>
       <c r="E23" s="5"/>
       <c r="F23" s="5"/>
-      <c r="G23" s="42"/>
-      <c r="H23" s="42"/>
-      <c r="I23" s="42"/>
-      <c r="J23" s="42"/>
-      <c r="K23" s="42"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="30"/>
+      <c r="K23" s="30"/>
       <c r="L23" s="5"/>
     </row>
     <row r="24" spans="2:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B24" s="14"/>
+      <c r="B24" s="43"/>
       <c r="C24" s="4" t="s">
         <v>39</v>
       </c>
-      <c r="D24" s="19" t="s">
+      <c r="D24" s="16" t="s">
         <v>40</v>
       </c>
       <c r="E24" s="5"/>
       <c r="F24" s="5"/>
-      <c r="G24" s="42"/>
-      <c r="H24" s="42"/>
-      <c r="I24" s="42"/>
-      <c r="J24" s="42"/>
-      <c r="K24" s="42"/>
+      <c r="G24" s="30"/>
+      <c r="H24" s="30"/>
+      <c r="I24" s="30"/>
+      <c r="J24" s="30"/>
+      <c r="K24" s="30"/>
       <c r="L24" s="5"/>
     </row>
     <row r="25" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B25" s="14"/>
+      <c r="B25" s="43"/>
       <c r="C25" s="4" t="s">
         <v>41</v>
       </c>
-      <c r="D25" s="19" t="s">
+      <c r="D25" s="16" t="s">
         <v>42</v>
       </c>
       <c r="E25" s="5"/>
       <c r="F25" s="5"/>
-      <c r="G25" s="42"/>
-      <c r="H25" s="42"/>
-      <c r="I25" s="42"/>
-      <c r="J25" s="42"/>
-      <c r="K25" s="42"/>
+      <c r="G25" s="30"/>
+      <c r="H25" s="30"/>
+      <c r="I25" s="30"/>
+      <c r="J25" s="30"/>
+      <c r="K25" s="30"/>
       <c r="L25" s="5"/>
     </row>
     <row r="26" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B26" s="14"/>
-      <c r="C26" s="23">
+      <c r="B26" s="43"/>
+      <c r="C26" s="20">
         <v>7.3</v>
       </c>
-      <c r="D26" s="18" t="s">
+      <c r="D26" s="15" t="s">
         <v>43</v>
       </c>
       <c r="E26" s="3"/>
       <c r="F26" s="3"/>
-      <c r="G26" s="41"/>
-      <c r="H26" s="41"/>
-      <c r="I26" s="41"/>
-      <c r="J26" s="41"/>
-      <c r="K26" s="41"/>
+      <c r="G26" s="29"/>
+      <c r="H26" s="29"/>
+      <c r="I26" s="29"/>
+      <c r="J26" s="29"/>
+      <c r="K26" s="29"/>
       <c r="L26" s="3"/>
     </row>
     <row r="27" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B27" s="14"/>
+      <c r="B27" s="43"/>
       <c r="C27" s="4" t="s">
         <v>44</v>
       </c>
-      <c r="D27" s="19" t="s">
+      <c r="D27" s="16" t="s">
         <v>45</v>
       </c>
       <c r="E27" s="5"/>
       <c r="F27" s="5"/>
-      <c r="G27" s="42"/>
-      <c r="H27" s="42"/>
-      <c r="I27" s="42"/>
-      <c r="J27" s="42"/>
-      <c r="K27" s="42"/>
+      <c r="G27" s="30"/>
+      <c r="H27" s="30"/>
+      <c r="I27" s="30"/>
+      <c r="J27" s="30"/>
+      <c r="K27" s="30"/>
       <c r="L27" s="5"/>
     </row>
     <row r="28" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B28" s="21"/>
+      <c r="B28" s="18"/>
       <c r="C28" s="6"/>
-      <c r="D28" s="20"/>
+      <c r="D28" s="17"/>
       <c r="E28" s="8"/>
       <c r="F28" s="8"/>
       <c r="G28" s="12"/>
@@ -2433,232 +2506,232 @@
       <c r="L28" s="8"/>
     </row>
     <row r="29" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B29" s="14" t="s">
+      <c r="B29" s="43" t="s">
         <v>46</v>
       </c>
-      <c r="C29" s="23">
+      <c r="C29" s="20">
         <v>8.1</v>
       </c>
-      <c r="D29" s="18" t="s">
+      <c r="D29" s="15" t="s">
         <v>47</v>
       </c>
       <c r="E29" s="3"/>
       <c r="F29" s="3"/>
-      <c r="G29" s="41"/>
-      <c r="H29" s="41"/>
-      <c r="I29" s="41"/>
-      <c r="J29" s="41"/>
-      <c r="K29" s="41"/>
+      <c r="G29" s="29"/>
+      <c r="H29" s="29"/>
+      <c r="I29" s="29"/>
+      <c r="J29" s="29"/>
+      <c r="K29" s="29"/>
       <c r="L29" s="3"/>
     </row>
     <row r="30" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B30" s="14"/>
+      <c r="B30" s="43"/>
       <c r="C30" s="4" t="s">
         <v>48</v>
       </c>
-      <c r="D30" s="19" t="s">
+      <c r="D30" s="16" t="s">
         <v>49</v>
       </c>
       <c r="E30" s="5"/>
       <c r="F30" s="5"/>
-      <c r="G30" s="42"/>
-      <c r="H30" s="42"/>
-      <c r="I30" s="42"/>
-      <c r="J30" s="42"/>
-      <c r="K30" s="42"/>
+      <c r="G30" s="30"/>
+      <c r="H30" s="30"/>
+      <c r="I30" s="30"/>
+      <c r="J30" s="30"/>
+      <c r="K30" s="30"/>
       <c r="L30" s="5"/>
     </row>
     <row r="31" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B31" s="14"/>
+      <c r="B31" s="43"/>
       <c r="C31" s="4" t="s">
         <v>50</v>
       </c>
-      <c r="D31" s="19" t="s">
+      <c r="D31" s="16" t="s">
         <v>51</v>
       </c>
       <c r="E31" s="5"/>
       <c r="F31" s="5"/>
-      <c r="G31" s="42"/>
-      <c r="H31" s="42"/>
-      <c r="I31" s="42"/>
-      <c r="J31" s="42"/>
-      <c r="K31" s="42"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
       <c r="L31" s="5"/>
     </row>
     <row r="32" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B32" s="14"/>
+      <c r="B32" s="43"/>
       <c r="C32" s="4" t="s">
         <v>52</v>
       </c>
-      <c r="D32" s="19" t="s">
+      <c r="D32" s="16" t="s">
         <v>53</v>
       </c>
       <c r="E32" s="5"/>
       <c r="F32" s="5"/>
-      <c r="G32" s="42"/>
-      <c r="H32" s="42"/>
-      <c r="I32" s="42"/>
-      <c r="J32" s="42"/>
-      <c r="K32" s="42"/>
+      <c r="G32" s="30"/>
+      <c r="H32" s="30"/>
+      <c r="I32" s="30"/>
+      <c r="J32" s="30"/>
+      <c r="K32" s="30"/>
       <c r="L32" s="5"/>
     </row>
     <row r="33" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B33" s="14"/>
+      <c r="B33" s="43"/>
       <c r="C33" s="9" t="s">
         <v>54</v>
       </c>
-      <c r="D33" s="22" t="s">
+      <c r="D33" s="19" t="s">
         <v>55</v>
       </c>
       <c r="E33" s="5"/>
       <c r="F33" s="5"/>
-      <c r="G33" s="42"/>
-      <c r="H33" s="42"/>
-      <c r="I33" s="42"/>
-      <c r="J33" s="42"/>
-      <c r="K33" s="42"/>
+      <c r="G33" s="30"/>
+      <c r="H33" s="30"/>
+      <c r="I33" s="30"/>
+      <c r="J33" s="30"/>
+      <c r="K33" s="30"/>
       <c r="L33" s="5"/>
     </row>
     <row r="34" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B34" s="14"/>
-      <c r="C34" s="23">
+      <c r="B34" s="43"/>
+      <c r="C34" s="20">
         <v>8.1999999999999993</v>
       </c>
-      <c r="D34" s="18" t="s">
+      <c r="D34" s="15" t="s">
         <v>56</v>
       </c>
       <c r="E34" s="3"/>
       <c r="F34" s="3"/>
-      <c r="G34" s="41"/>
-      <c r="H34" s="41"/>
-      <c r="I34" s="41"/>
-      <c r="J34" s="41"/>
-      <c r="K34" s="41"/>
+      <c r="G34" s="29"/>
+      <c r="H34" s="29"/>
+      <c r="I34" s="29"/>
+      <c r="J34" s="29"/>
+      <c r="K34" s="29"/>
       <c r="L34" s="3"/>
     </row>
     <row r="35" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B35" s="14"/>
+      <c r="B35" s="43"/>
       <c r="C35" s="4" t="s">
         <v>57</v>
       </c>
-      <c r="D35" s="19" t="s">
+      <c r="D35" s="16" t="s">
         <v>56</v>
       </c>
       <c r="E35" s="5"/>
       <c r="F35" s="5"/>
-      <c r="G35" s="42"/>
-      <c r="H35" s="42"/>
-      <c r="I35" s="42"/>
-      <c r="J35" s="42"/>
-      <c r="K35" s="42"/>
+      <c r="G35" s="30"/>
+      <c r="H35" s="30"/>
+      <c r="I35" s="30"/>
+      <c r="J35" s="30"/>
+      <c r="K35" s="30"/>
       <c r="L35" s="5"/>
     </row>
     <row r="36" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B36" s="14"/>
+      <c r="B36" s="43"/>
       <c r="C36" s="4" t="s">
         <v>58</v>
       </c>
-      <c r="D36" s="19" t="s">
+      <c r="D36" s="16" t="s">
         <v>59</v>
       </c>
       <c r="E36" s="5"/>
       <c r="F36" s="5"/>
-      <c r="G36" s="42"/>
-      <c r="H36" s="42"/>
-      <c r="I36" s="42"/>
-      <c r="J36" s="42"/>
-      <c r="K36" s="42"/>
+      <c r="G36" s="30"/>
+      <c r="H36" s="30"/>
+      <c r="I36" s="30"/>
+      <c r="J36" s="30"/>
+      <c r="K36" s="30"/>
       <c r="L36" s="5"/>
     </row>
     <row r="37" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B37" s="14"/>
+      <c r="B37" s="43"/>
       <c r="C37" s="4" t="s">
         <v>60</v>
       </c>
-      <c r="D37" s="19" t="s">
+      <c r="D37" s="16" t="s">
         <v>61</v>
       </c>
       <c r="E37" s="5"/>
       <c r="F37" s="5"/>
-      <c r="G37" s="42"/>
-      <c r="H37" s="42"/>
-      <c r="I37" s="42"/>
-      <c r="J37" s="42"/>
-      <c r="K37" s="42"/>
+      <c r="G37" s="30"/>
+      <c r="H37" s="30"/>
+      <c r="I37" s="30"/>
+      <c r="J37" s="30"/>
+      <c r="K37" s="30"/>
       <c r="L37" s="5"/>
     </row>
     <row r="38" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B38" s="14"/>
-      <c r="C38" s="23">
+      <c r="B38" s="43"/>
+      <c r="C38" s="20">
         <v>8.3000000000000007</v>
       </c>
-      <c r="D38" s="18" t="s">
+      <c r="D38" s="15" t="s">
         <v>62</v>
       </c>
       <c r="E38" s="3"/>
       <c r="F38" s="3"/>
-      <c r="G38" s="41"/>
-      <c r="H38" s="41"/>
-      <c r="I38" s="41"/>
-      <c r="J38" s="41"/>
-      <c r="K38" s="41"/>
+      <c r="G38" s="29"/>
+      <c r="H38" s="29"/>
+      <c r="I38" s="29"/>
+      <c r="J38" s="29"/>
+      <c r="K38" s="29"/>
       <c r="L38" s="3"/>
     </row>
     <row r="39" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B39" s="14"/>
+      <c r="B39" s="43"/>
       <c r="C39" s="4" t="s">
         <v>63</v>
       </c>
-      <c r="D39" s="19" t="s">
+      <c r="D39" s="16" t="s">
         <v>64</v>
       </c>
       <c r="E39" s="5"/>
       <c r="F39" s="5"/>
-      <c r="G39" s="42"/>
-      <c r="H39" s="42"/>
-      <c r="I39" s="42"/>
-      <c r="J39" s="42"/>
-      <c r="K39" s="42"/>
+      <c r="G39" s="30"/>
+      <c r="H39" s="30"/>
+      <c r="I39" s="30"/>
+      <c r="J39" s="30"/>
+      <c r="K39" s="30"/>
       <c r="L39" s="5"/>
     </row>
     <row r="40" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B40" s="14"/>
+      <c r="B40" s="43"/>
       <c r="C40" s="4" t="s">
         <v>65</v>
       </c>
-      <c r="D40" s="19" t="s">
+      <c r="D40" s="16" t="s">
         <v>66</v>
       </c>
       <c r="E40" s="5"/>
       <c r="F40" s="5"/>
-      <c r="G40" s="42"/>
-      <c r="H40" s="42"/>
-      <c r="I40" s="42"/>
-      <c r="J40" s="42"/>
-      <c r="K40" s="42"/>
+      <c r="G40" s="30"/>
+      <c r="H40" s="30"/>
+      <c r="I40" s="30"/>
+      <c r="J40" s="30"/>
+      <c r="K40" s="30"/>
       <c r="L40" s="5"/>
     </row>
     <row r="41" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B41" s="14"/>
+      <c r="B41" s="43"/>
       <c r="C41" s="4" t="s">
         <v>67</v>
       </c>
-      <c r="D41" s="19" t="s">
+      <c r="D41" s="16" t="s">
         <v>68</v>
       </c>
       <c r="E41" s="5"/>
       <c r="F41" s="5"/>
-      <c r="G41" s="42"/>
-      <c r="H41" s="42"/>
-      <c r="I41" s="42"/>
-      <c r="J41" s="42"/>
-      <c r="K41" s="42"/>
+      <c r="G41" s="30"/>
+      <c r="H41" s="30"/>
+      <c r="I41" s="30"/>
+      <c r="J41" s="30"/>
+      <c r="K41" s="30"/>
       <c r="L41" s="5"/>
     </row>
     <row r="42" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B42" s="21"/>
+      <c r="B42" s="18"/>
       <c r="C42" s="6"/>
-      <c r="D42" s="20"/>
+      <c r="D42" s="17"/>
       <c r="E42" s="8"/>
       <c r="F42" s="8"/>
       <c r="G42" s="12"/>
@@ -2669,317 +2742,317 @@
       <c r="L42" s="8"/>
     </row>
     <row r="43" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B43" s="15" t="s">
+      <c r="B43" s="44" t="s">
         <v>69</v>
       </c>
-      <c r="C43" s="23">
+      <c r="C43" s="20">
         <v>9.1</v>
       </c>
-      <c r="D43" s="18" t="s">
+      <c r="D43" s="15" t="s">
         <v>70</v>
       </c>
       <c r="E43" s="3"/>
       <c r="F43" s="3"/>
-      <c r="G43" s="41"/>
-      <c r="H43" s="41"/>
-      <c r="I43" s="41"/>
-      <c r="J43" s="41"/>
-      <c r="K43" s="41"/>
+      <c r="G43" s="29"/>
+      <c r="H43" s="29"/>
+      <c r="I43" s="29"/>
+      <c r="J43" s="29"/>
+      <c r="K43" s="29"/>
       <c r="L43" s="3"/>
     </row>
     <row r="44" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B44" s="15"/>
+      <c r="B44" s="44"/>
       <c r="C44" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="D44" s="19" t="s">
+      <c r="D44" s="16" t="s">
         <v>72</v>
       </c>
       <c r="E44" s="5"/>
       <c r="F44" s="5"/>
-      <c r="G44" s="42"/>
-      <c r="H44" s="42"/>
-      <c r="I44" s="42"/>
-      <c r="J44" s="42"/>
-      <c r="K44" s="42"/>
+      <c r="G44" s="30"/>
+      <c r="H44" s="30"/>
+      <c r="I44" s="30"/>
+      <c r="J44" s="30"/>
+      <c r="K44" s="30"/>
       <c r="L44" s="5"/>
     </row>
     <row r="45" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B45" s="15"/>
+      <c r="B45" s="44"/>
       <c r="C45" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="D45" s="19" t="s">
+      <c r="D45" s="16" t="s">
         <v>74</v>
       </c>
       <c r="E45" s="5"/>
       <c r="F45" s="5"/>
-      <c r="G45" s="42"/>
-      <c r="H45" s="42"/>
-      <c r="I45" s="42"/>
-      <c r="J45" s="42"/>
-      <c r="K45" s="42"/>
+      <c r="G45" s="30"/>
+      <c r="H45" s="30"/>
+      <c r="I45" s="30"/>
+      <c r="J45" s="30"/>
+      <c r="K45" s="30"/>
       <c r="L45" s="5"/>
     </row>
     <row r="46" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B46" s="15"/>
-      <c r="C46" s="23">
+      <c r="B46" s="44"/>
+      <c r="C46" s="20">
         <v>9.1999999999999993</v>
       </c>
-      <c r="D46" s="18" t="s">
+      <c r="D46" s="15" t="s">
         <v>75</v>
       </c>
       <c r="E46" s="3"/>
       <c r="F46" s="3"/>
-      <c r="G46" s="41"/>
-      <c r="H46" s="41"/>
-      <c r="I46" s="41"/>
-      <c r="J46" s="41"/>
-      <c r="K46" s="41"/>
+      <c r="G46" s="29"/>
+      <c r="H46" s="29"/>
+      <c r="I46" s="29"/>
+      <c r="J46" s="29"/>
+      <c r="K46" s="29"/>
       <c r="L46" s="3"/>
     </row>
     <row r="47" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B47" s="15"/>
+      <c r="B47" s="44"/>
       <c r="C47" s="4" t="s">
         <v>76</v>
       </c>
-      <c r="D47" s="19" t="s">
+      <c r="D47" s="16" t="s">
         <v>77</v>
       </c>
       <c r="E47" s="5"/>
       <c r="F47" s="5"/>
-      <c r="G47" s="42"/>
-      <c r="H47" s="42"/>
-      <c r="I47" s="42"/>
-      <c r="J47" s="42"/>
-      <c r="K47" s="42"/>
+      <c r="G47" s="30"/>
+      <c r="H47" s="30"/>
+      <c r="I47" s="30"/>
+      <c r="J47" s="30"/>
+      <c r="K47" s="30"/>
       <c r="L47" s="5"/>
     </row>
     <row r="48" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B48" s="15"/>
+      <c r="B48" s="44"/>
       <c r="C48" s="4" t="s">
         <v>78</v>
       </c>
-      <c r="D48" s="19" t="s">
-        <v>79</v>
+      <c r="D48" s="16" t="s">
+        <v>329</v>
       </c>
       <c r="E48" s="5"/>
       <c r="F48" s="5"/>
-      <c r="G48" s="42"/>
-      <c r="H48" s="42"/>
-      <c r="I48" s="42"/>
-      <c r="J48" s="42"/>
-      <c r="K48" s="42"/>
+      <c r="G48" s="30"/>
+      <c r="H48" s="30"/>
+      <c r="I48" s="30"/>
+      <c r="J48" s="30"/>
+      <c r="K48" s="30"/>
       <c r="L48" s="5"/>
     </row>
     <row r="49" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B49" s="15"/>
+      <c r="B49" s="44"/>
       <c r="C49" s="4" t="s">
+        <v>79</v>
+      </c>
+      <c r="D49" s="16" t="s">
         <v>80</v>
-      </c>
-      <c r="D49" s="19" t="s">
-        <v>81</v>
       </c>
       <c r="E49" s="5"/>
       <c r="F49" s="5"/>
-      <c r="G49" s="42"/>
-      <c r="H49" s="42"/>
-      <c r="I49" s="42"/>
-      <c r="J49" s="42"/>
-      <c r="K49" s="42"/>
+      <c r="G49" s="30"/>
+      <c r="H49" s="30"/>
+      <c r="I49" s="30"/>
+      <c r="J49" s="30"/>
+      <c r="K49" s="30"/>
       <c r="L49" s="5"/>
     </row>
     <row r="50" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B50" s="15"/>
+      <c r="B50" s="44"/>
       <c r="C50" s="4" t="s">
+        <v>81</v>
+      </c>
+      <c r="D50" s="16" t="s">
         <v>82</v>
-      </c>
-      <c r="D50" s="19" t="s">
-        <v>83</v>
       </c>
       <c r="E50" s="5"/>
       <c r="F50" s="5"/>
-      <c r="G50" s="42"/>
-      <c r="H50" s="42"/>
-      <c r="I50" s="42"/>
-      <c r="J50" s="42"/>
-      <c r="K50" s="42"/>
+      <c r="G50" s="30"/>
+      <c r="H50" s="30"/>
+      <c r="I50" s="30"/>
+      <c r="J50" s="30"/>
+      <c r="K50" s="30"/>
       <c r="L50" s="5"/>
     </row>
     <row r="51" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B51" s="15"/>
+      <c r="B51" s="44"/>
       <c r="C51" s="4" t="s">
+        <v>83</v>
+      </c>
+      <c r="D51" s="16" t="s">
         <v>84</v>
-      </c>
-      <c r="D51" s="19" t="s">
-        <v>85</v>
       </c>
       <c r="E51" s="5"/>
       <c r="F51" s="5"/>
-      <c r="G51" s="42"/>
-      <c r="H51" s="42"/>
-      <c r="I51" s="42"/>
-      <c r="J51" s="42"/>
-      <c r="K51" s="42"/>
+      <c r="G51" s="30"/>
+      <c r="H51" s="30"/>
+      <c r="I51" s="30"/>
+      <c r="J51" s="30"/>
+      <c r="K51" s="30"/>
       <c r="L51" s="5"/>
     </row>
     <row r="52" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B52" s="15"/>
+      <c r="B52" s="44"/>
       <c r="C52" s="4" t="s">
+        <v>85</v>
+      </c>
+      <c r="D52" s="16" t="s">
         <v>86</v>
-      </c>
-      <c r="D52" s="19" t="s">
-        <v>87</v>
       </c>
       <c r="E52" s="5"/>
       <c r="F52" s="5"/>
-      <c r="G52" s="42"/>
-      <c r="H52" s="42"/>
-      <c r="I52" s="42"/>
-      <c r="J52" s="42"/>
-      <c r="K52" s="42"/>
+      <c r="G52" s="30"/>
+      <c r="H52" s="30"/>
+      <c r="I52" s="30"/>
+      <c r="J52" s="30"/>
+      <c r="K52" s="30"/>
       <c r="L52" s="5"/>
     </row>
     <row r="53" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B53" s="15"/>
-      <c r="C53" s="23">
+      <c r="B53" s="44"/>
+      <c r="C53" s="20">
         <v>9.3000000000000007</v>
       </c>
-      <c r="D53" s="18" t="s">
-        <v>88</v>
+      <c r="D53" s="15" t="s">
+        <v>87</v>
       </c>
       <c r="E53" s="3"/>
       <c r="F53" s="3"/>
-      <c r="G53" s="41"/>
-      <c r="H53" s="41"/>
-      <c r="I53" s="41"/>
-      <c r="J53" s="41"/>
-      <c r="K53" s="41"/>
+      <c r="G53" s="29"/>
+      <c r="H53" s="29"/>
+      <c r="I53" s="29"/>
+      <c r="J53" s="29"/>
+      <c r="K53" s="29"/>
       <c r="L53" s="3"/>
     </row>
     <row r="54" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B54" s="15"/>
+      <c r="B54" s="44"/>
       <c r="C54" s="4" t="s">
+        <v>88</v>
+      </c>
+      <c r="D54" s="16" t="s">
         <v>89</v>
-      </c>
-      <c r="D54" s="19" t="s">
-        <v>90</v>
       </c>
       <c r="E54" s="5"/>
       <c r="F54" s="5"/>
-      <c r="G54" s="42"/>
-      <c r="H54" s="42"/>
-      <c r="I54" s="42"/>
-      <c r="J54" s="42"/>
-      <c r="K54" s="42"/>
+      <c r="G54" s="30"/>
+      <c r="H54" s="30"/>
+      <c r="I54" s="30"/>
+      <c r="J54" s="30"/>
+      <c r="K54" s="30"/>
       <c r="L54" s="5"/>
     </row>
     <row r="55" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B55" s="15"/>
-      <c r="C55" s="23">
+      <c r="B55" s="44"/>
+      <c r="C55" s="20">
         <v>9.4</v>
       </c>
-      <c r="D55" s="18" t="s">
-        <v>91</v>
+      <c r="D55" s="15" t="s">
+        <v>90</v>
       </c>
       <c r="E55" s="3"/>
       <c r="F55" s="3"/>
-      <c r="G55" s="41"/>
-      <c r="H55" s="41"/>
-      <c r="I55" s="41"/>
-      <c r="J55" s="41"/>
-      <c r="K55" s="41"/>
+      <c r="G55" s="29"/>
+      <c r="H55" s="29"/>
+      <c r="I55" s="29"/>
+      <c r="J55" s="29"/>
+      <c r="K55" s="29"/>
       <c r="L55" s="3"/>
     </row>
     <row r="56" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B56" s="15"/>
+      <c r="B56" s="44"/>
       <c r="C56" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="D56" s="16" t="s">
         <v>92</v>
-      </c>
-      <c r="D56" s="19" t="s">
-        <v>93</v>
       </c>
       <c r="E56" s="5"/>
       <c r="F56" s="5"/>
-      <c r="G56" s="42"/>
-      <c r="H56" s="42"/>
-      <c r="I56" s="42"/>
-      <c r="J56" s="42"/>
-      <c r="K56" s="42"/>
+      <c r="G56" s="30"/>
+      <c r="H56" s="30"/>
+      <c r="I56" s="30"/>
+      <c r="J56" s="30"/>
+      <c r="K56" s="30"/>
       <c r="L56" s="5"/>
     </row>
     <row r="57" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B57" s="15"/>
+      <c r="B57" s="44"/>
       <c r="C57" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="D57" s="16" t="s">
         <v>94</v>
-      </c>
-      <c r="D57" s="19" t="s">
-        <v>95</v>
       </c>
       <c r="E57" s="5"/>
       <c r="F57" s="5"/>
-      <c r="G57" s="42"/>
-      <c r="H57" s="42"/>
-      <c r="I57" s="42"/>
-      <c r="J57" s="42"/>
-      <c r="K57" s="42"/>
+      <c r="G57" s="30"/>
+      <c r="H57" s="30"/>
+      <c r="I57" s="30"/>
+      <c r="J57" s="30"/>
+      <c r="K57" s="30"/>
       <c r="L57" s="5"/>
     </row>
     <row r="58" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B58" s="15"/>
+      <c r="B58" s="44"/>
       <c r="C58" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="D58" s="16" t="s">
         <v>96</v>
-      </c>
-      <c r="D58" s="19" t="s">
-        <v>97</v>
       </c>
       <c r="E58" s="5"/>
       <c r="F58" s="5"/>
-      <c r="G58" s="42"/>
-      <c r="H58" s="42"/>
-      <c r="I58" s="42"/>
-      <c r="J58" s="42"/>
-      <c r="K58" s="42"/>
+      <c r="G58" s="30"/>
+      <c r="H58" s="30"/>
+      <c r="I58" s="30"/>
+      <c r="J58" s="30"/>
+      <c r="K58" s="30"/>
       <c r="L58" s="5"/>
     </row>
     <row r="59" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B59" s="15"/>
+      <c r="B59" s="44"/>
       <c r="C59" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="D59" s="16" t="s">
         <v>98</v>
-      </c>
-      <c r="D59" s="19" t="s">
-        <v>99</v>
       </c>
       <c r="E59" s="5"/>
       <c r="F59" s="5"/>
-      <c r="G59" s="42"/>
-      <c r="H59" s="42"/>
-      <c r="I59" s="42"/>
-      <c r="J59" s="42"/>
-      <c r="K59" s="42"/>
+      <c r="G59" s="30"/>
+      <c r="H59" s="30"/>
+      <c r="I59" s="30"/>
+      <c r="J59" s="30"/>
+      <c r="K59" s="30"/>
       <c r="L59" s="5"/>
     </row>
     <row r="60" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B60" s="15"/>
+      <c r="B60" s="44"/>
       <c r="C60" s="4" t="s">
+        <v>99</v>
+      </c>
+      <c r="D60" s="16" t="s">
         <v>100</v>
-      </c>
-      <c r="D60" s="19" t="s">
-        <v>101</v>
       </c>
       <c r="E60" s="5"/>
       <c r="F60" s="5"/>
-      <c r="G60" s="42"/>
-      <c r="H60" s="42"/>
-      <c r="I60" s="42"/>
-      <c r="J60" s="42"/>
-      <c r="K60" s="42"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="30"/>
+      <c r="I60" s="30"/>
+      <c r="J60" s="30"/>
+      <c r="K60" s="30"/>
       <c r="L60" s="5"/>
     </row>
     <row r="61" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B61" s="21"/>
+      <c r="B61" s="18"/>
       <c r="C61" s="6"/>
-      <c r="D61" s="20"/>
+      <c r="D61" s="17"/>
       <c r="E61" s="8"/>
       <c r="F61" s="8"/>
       <c r="G61" s="12"/>
@@ -2990,62 +3063,62 @@
       <c r="L61" s="8"/>
     </row>
     <row r="62" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B62" s="15" t="s">
+      <c r="B62" s="44" t="s">
+        <v>101</v>
+      </c>
+      <c r="C62" s="20">
+        <v>10.1</v>
+      </c>
+      <c r="D62" s="15" t="s">
         <v>102</v>
-      </c>
-      <c r="C62" s="23">
-        <v>10.1</v>
-      </c>
-      <c r="D62" s="18" t="s">
-        <v>103</v>
       </c>
       <c r="E62" s="3"/>
       <c r="F62" s="3"/>
-      <c r="G62" s="41"/>
-      <c r="H62" s="41"/>
-      <c r="I62" s="41"/>
-      <c r="J62" s="41"/>
-      <c r="K62" s="41"/>
+      <c r="G62" s="29"/>
+      <c r="H62" s="29"/>
+      <c r="I62" s="29"/>
+      <c r="J62" s="29"/>
+      <c r="K62" s="29"/>
       <c r="L62" s="3"/>
     </row>
     <row r="63" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B63" s="15"/>
+      <c r="B63" s="44"/>
       <c r="C63" s="4" t="s">
+        <v>103</v>
+      </c>
+      <c r="D63" s="16" t="s">
         <v>104</v>
-      </c>
-      <c r="D63" s="19" t="s">
-        <v>105</v>
       </c>
       <c r="E63" s="5"/>
       <c r="F63" s="5"/>
-      <c r="G63" s="42"/>
-      <c r="H63" s="42"/>
-      <c r="I63" s="42"/>
-      <c r="J63" s="42"/>
-      <c r="K63" s="42"/>
+      <c r="G63" s="30"/>
+      <c r="H63" s="30"/>
+      <c r="I63" s="30"/>
+      <c r="J63" s="30"/>
+      <c r="K63" s="30"/>
       <c r="L63" s="5"/>
     </row>
     <row r="64" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B64" s="15"/>
+      <c r="B64" s="44"/>
       <c r="C64" s="4" t="s">
+        <v>105</v>
+      </c>
+      <c r="D64" s="16" t="s">
         <v>106</v>
-      </c>
-      <c r="D64" s="19" t="s">
-        <v>107</v>
       </c>
       <c r="E64" s="5"/>
       <c r="F64" s="5"/>
-      <c r="G64" s="42"/>
-      <c r="H64" s="42"/>
-      <c r="I64" s="42"/>
-      <c r="J64" s="42"/>
-      <c r="K64" s="42"/>
+      <c r="G64" s="30"/>
+      <c r="H64" s="30"/>
+      <c r="I64" s="30"/>
+      <c r="J64" s="30"/>
+      <c r="K64" s="30"/>
       <c r="L64" s="5"/>
     </row>
     <row r="65" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B65" s="21"/>
+      <c r="B65" s="18"/>
       <c r="C65" s="6"/>
-      <c r="D65" s="20"/>
+      <c r="D65" s="17"/>
       <c r="E65" s="8"/>
       <c r="F65" s="8"/>
       <c r="G65" s="12"/>
@@ -3056,300 +3129,300 @@
       <c r="L65" s="8"/>
     </row>
     <row r="66" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B66" s="14" t="s">
+      <c r="B66" s="43" t="s">
+        <v>107</v>
+      </c>
+      <c r="C66" s="20">
+        <v>11.1</v>
+      </c>
+      <c r="D66" s="15" t="s">
         <v>108</v>
-      </c>
-      <c r="C66" s="23">
-        <v>11.1</v>
-      </c>
-      <c r="D66" s="18" t="s">
-        <v>109</v>
       </c>
       <c r="E66" s="3"/>
       <c r="F66" s="3"/>
-      <c r="G66" s="41"/>
-      <c r="H66" s="41"/>
-      <c r="I66" s="41"/>
-      <c r="J66" s="41"/>
-      <c r="K66" s="41"/>
+      <c r="G66" s="29"/>
+      <c r="H66" s="29"/>
+      <c r="I66" s="29"/>
+      <c r="J66" s="29"/>
+      <c r="K66" s="29"/>
       <c r="L66" s="3"/>
     </row>
     <row r="67" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B67" s="14"/>
+      <c r="B67" s="43"/>
       <c r="C67" s="4" t="s">
+        <v>109</v>
+      </c>
+      <c r="D67" s="16" t="s">
         <v>110</v>
-      </c>
-      <c r="D67" s="19" t="s">
-        <v>111</v>
       </c>
       <c r="E67" s="5"/>
       <c r="F67" s="5"/>
-      <c r="G67" s="42"/>
-      <c r="H67" s="42"/>
-      <c r="I67" s="42"/>
-      <c r="J67" s="42"/>
-      <c r="K67" s="42"/>
+      <c r="G67" s="30"/>
+      <c r="H67" s="30"/>
+      <c r="I67" s="30"/>
+      <c r="J67" s="30"/>
+      <c r="K67" s="30"/>
       <c r="L67" s="5"/>
     </row>
     <row r="68" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B68" s="14"/>
+      <c r="B68" s="43"/>
       <c r="C68" s="4" t="s">
+        <v>111</v>
+      </c>
+      <c r="D68" s="16" t="s">
         <v>112</v>
-      </c>
-      <c r="D68" s="19" t="s">
-        <v>113</v>
       </c>
       <c r="E68" s="5"/>
       <c r="F68" s="5"/>
-      <c r="G68" s="42"/>
-      <c r="H68" s="42"/>
-      <c r="I68" s="42"/>
-      <c r="J68" s="42"/>
-      <c r="K68" s="42"/>
+      <c r="G68" s="30"/>
+      <c r="H68" s="30"/>
+      <c r="I68" s="30"/>
+      <c r="J68" s="30"/>
+      <c r="K68" s="30"/>
       <c r="L68" s="5"/>
     </row>
     <row r="69" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B69" s="14"/>
+      <c r="B69" s="43"/>
       <c r="C69" s="4" t="s">
+        <v>113</v>
+      </c>
+      <c r="D69" s="16" t="s">
         <v>114</v>
-      </c>
-      <c r="D69" s="19" t="s">
-        <v>115</v>
       </c>
       <c r="E69" s="5"/>
       <c r="F69" s="5"/>
-      <c r="G69" s="42"/>
-      <c r="H69" s="42"/>
-      <c r="I69" s="42"/>
-      <c r="J69" s="42"/>
-      <c r="K69" s="42"/>
+      <c r="G69" s="30"/>
+      <c r="H69" s="30"/>
+      <c r="I69" s="30"/>
+      <c r="J69" s="30"/>
+      <c r="K69" s="30"/>
       <c r="L69" s="5"/>
     </row>
     <row r="70" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B70" s="14"/>
+      <c r="B70" s="43"/>
       <c r="C70" s="4" t="s">
+        <v>115</v>
+      </c>
+      <c r="D70" s="16" t="s">
         <v>116</v>
-      </c>
-      <c r="D70" s="19" t="s">
-        <v>117</v>
       </c>
       <c r="E70" s="5"/>
       <c r="F70" s="5"/>
-      <c r="G70" s="42"/>
-      <c r="H70" s="42"/>
-      <c r="I70" s="42"/>
-      <c r="J70" s="42"/>
-      <c r="K70" s="42"/>
+      <c r="G70" s="30"/>
+      <c r="H70" s="30"/>
+      <c r="I70" s="30"/>
+      <c r="J70" s="30"/>
+      <c r="K70" s="30"/>
       <c r="L70" s="5"/>
     </row>
     <row r="71" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B71" s="14"/>
+      <c r="B71" s="43"/>
       <c r="C71" s="4" t="s">
+        <v>117</v>
+      </c>
+      <c r="D71" s="16" t="s">
         <v>118</v>
-      </c>
-      <c r="D71" s="19" t="s">
-        <v>119</v>
       </c>
       <c r="E71" s="5"/>
       <c r="F71" s="5"/>
-      <c r="G71" s="42"/>
-      <c r="H71" s="42"/>
-      <c r="I71" s="42"/>
-      <c r="J71" s="42"/>
-      <c r="K71" s="42"/>
+      <c r="G71" s="30"/>
+      <c r="H71" s="30"/>
+      <c r="I71" s="30"/>
+      <c r="J71" s="30"/>
+      <c r="K71" s="30"/>
       <c r="L71" s="5"/>
     </row>
     <row r="72" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B72" s="14"/>
+      <c r="B72" s="43"/>
       <c r="C72" s="4" t="s">
+        <v>119</v>
+      </c>
+      <c r="D72" s="16" t="s">
         <v>120</v>
-      </c>
-      <c r="D72" s="19" t="s">
-        <v>121</v>
       </c>
       <c r="E72" s="5"/>
       <c r="F72" s="5"/>
-      <c r="G72" s="42"/>
-      <c r="H72" s="42"/>
-      <c r="I72" s="42"/>
-      <c r="J72" s="42"/>
-      <c r="K72" s="42"/>
+      <c r="G72" s="30"/>
+      <c r="H72" s="30"/>
+      <c r="I72" s="30"/>
+      <c r="J72" s="30"/>
+      <c r="K72" s="30"/>
       <c r="L72" s="5"/>
     </row>
     <row r="73" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B73" s="14"/>
-      <c r="C73" s="23">
+      <c r="B73" s="43"/>
+      <c r="C73" s="20">
         <v>11.2</v>
       </c>
-      <c r="D73" s="18" t="s">
-        <v>122</v>
+      <c r="D73" s="15" t="s">
+        <v>121</v>
       </c>
       <c r="E73" s="3"/>
       <c r="F73" s="3"/>
-      <c r="G73" s="41"/>
-      <c r="H73" s="41"/>
-      <c r="I73" s="41"/>
-      <c r="J73" s="41"/>
-      <c r="K73" s="41"/>
+      <c r="G73" s="29"/>
+      <c r="H73" s="29"/>
+      <c r="I73" s="29"/>
+      <c r="J73" s="29"/>
+      <c r="K73" s="29"/>
       <c r="L73" s="3"/>
     </row>
     <row r="74" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B74" s="14"/>
+      <c r="B74" s="43"/>
       <c r="C74" s="4" t="s">
+        <v>122</v>
+      </c>
+      <c r="D74" s="16" t="s">
         <v>123</v>
-      </c>
-      <c r="D74" s="19" t="s">
-        <v>124</v>
       </c>
       <c r="E74" s="5"/>
       <c r="F74" s="5"/>
-      <c r="G74" s="42"/>
-      <c r="H74" s="42"/>
-      <c r="I74" s="42"/>
-      <c r="J74" s="42"/>
-      <c r="K74" s="42"/>
+      <c r="G74" s="30"/>
+      <c r="H74" s="30"/>
+      <c r="I74" s="30"/>
+      <c r="J74" s="30"/>
+      <c r="K74" s="30"/>
       <c r="L74" s="5"/>
     </row>
     <row r="75" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B75" s="14"/>
+      <c r="B75" s="43"/>
       <c r="C75" s="4" t="s">
+        <v>124</v>
+      </c>
+      <c r="D75" s="16" t="s">
         <v>125</v>
-      </c>
-      <c r="D75" s="19" t="s">
-        <v>126</v>
       </c>
       <c r="E75" s="5"/>
       <c r="F75" s="5"/>
-      <c r="G75" s="42"/>
-      <c r="H75" s="42"/>
-      <c r="I75" s="42"/>
-      <c r="J75" s="42"/>
-      <c r="K75" s="42"/>
+      <c r="G75" s="30"/>
+      <c r="H75" s="30"/>
+      <c r="I75" s="30"/>
+      <c r="J75" s="30"/>
+      <c r="K75" s="30"/>
       <c r="L75" s="5"/>
     </row>
     <row r="76" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B76" s="14"/>
+      <c r="B76" s="43"/>
       <c r="C76" s="4" t="s">
+        <v>126</v>
+      </c>
+      <c r="D76" s="16" t="s">
         <v>127</v>
-      </c>
-      <c r="D76" s="19" t="s">
-        <v>128</v>
       </c>
       <c r="E76" s="5"/>
       <c r="F76" s="5"/>
-      <c r="G76" s="42"/>
-      <c r="H76" s="42"/>
-      <c r="I76" s="42"/>
-      <c r="J76" s="42"/>
-      <c r="K76" s="42"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="30"/>
+      <c r="I76" s="30"/>
+      <c r="J76" s="30"/>
+      <c r="K76" s="30"/>
       <c r="L76" s="5"/>
     </row>
     <row r="77" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B77" s="14"/>
+      <c r="B77" s="43"/>
       <c r="C77" s="4" t="s">
+        <v>128</v>
+      </c>
+      <c r="D77" s="16" t="s">
         <v>129</v>
-      </c>
-      <c r="D77" s="19" t="s">
-        <v>130</v>
       </c>
       <c r="E77" s="5"/>
       <c r="F77" s="5"/>
-      <c r="G77" s="42"/>
-      <c r="H77" s="42"/>
-      <c r="I77" s="42"/>
-      <c r="J77" s="42"/>
-      <c r="K77" s="42"/>
+      <c r="G77" s="30"/>
+      <c r="H77" s="30"/>
+      <c r="I77" s="30"/>
+      <c r="J77" s="30"/>
+      <c r="K77" s="30"/>
       <c r="L77" s="5"/>
     </row>
     <row r="78" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B78" s="14"/>
+      <c r="B78" s="43"/>
       <c r="C78" s="4" t="s">
+        <v>130</v>
+      </c>
+      <c r="D78" s="16" t="s">
         <v>131</v>
-      </c>
-      <c r="D78" s="19" t="s">
-        <v>132</v>
       </c>
       <c r="E78" s="5"/>
       <c r="F78" s="5"/>
-      <c r="G78" s="42"/>
-      <c r="H78" s="42"/>
-      <c r="I78" s="42"/>
-      <c r="J78" s="42"/>
-      <c r="K78" s="42"/>
+      <c r="G78" s="30"/>
+      <c r="H78" s="30"/>
+      <c r="I78" s="30"/>
+      <c r="J78" s="30"/>
+      <c r="K78" s="30"/>
       <c r="L78" s="5"/>
     </row>
     <row r="79" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B79" s="14"/>
+      <c r="B79" s="43"/>
       <c r="C79" s="4" t="s">
+        <v>132</v>
+      </c>
+      <c r="D79" s="16" t="s">
         <v>133</v>
-      </c>
-      <c r="D79" s="19" t="s">
-        <v>134</v>
       </c>
       <c r="E79" s="5"/>
       <c r="F79" s="5"/>
-      <c r="G79" s="42"/>
-      <c r="H79" s="42"/>
-      <c r="I79" s="42"/>
-      <c r="J79" s="42"/>
-      <c r="K79" s="42"/>
+      <c r="G79" s="30"/>
+      <c r="H79" s="30"/>
+      <c r="I79" s="30"/>
+      <c r="J79" s="30"/>
+      <c r="K79" s="30"/>
       <c r="L79" s="5"/>
     </row>
     <row r="80" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B80" s="14"/>
+      <c r="B80" s="43"/>
       <c r="C80" s="4" t="s">
+        <v>134</v>
+      </c>
+      <c r="D80" s="16" t="s">
         <v>135</v>
-      </c>
-      <c r="D80" s="19" t="s">
-        <v>136</v>
       </c>
       <c r="E80" s="5"/>
       <c r="F80" s="5"/>
-      <c r="G80" s="42"/>
-      <c r="H80" s="42"/>
-      <c r="I80" s="42"/>
-      <c r="J80" s="42"/>
-      <c r="K80" s="42"/>
+      <c r="G80" s="30"/>
+      <c r="H80" s="30"/>
+      <c r="I80" s="30"/>
+      <c r="J80" s="30"/>
+      <c r="K80" s="30"/>
       <c r="L80" s="5"/>
     </row>
     <row r="81" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B81" s="14"/>
+      <c r="B81" s="43"/>
       <c r="C81" s="4" t="s">
+        <v>136</v>
+      </c>
+      <c r="D81" s="16" t="s">
         <v>137</v>
-      </c>
-      <c r="D81" s="19" t="s">
-        <v>138</v>
       </c>
       <c r="E81" s="5"/>
       <c r="F81" s="5"/>
-      <c r="G81" s="42"/>
-      <c r="H81" s="42"/>
-      <c r="I81" s="42"/>
-      <c r="J81" s="42"/>
-      <c r="K81" s="42"/>
+      <c r="G81" s="30"/>
+      <c r="H81" s="30"/>
+      <c r="I81" s="30"/>
+      <c r="J81" s="30"/>
+      <c r="K81" s="30"/>
       <c r="L81" s="5"/>
     </row>
     <row r="82" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B82" s="14"/>
+      <c r="B82" s="43"/>
       <c r="C82" s="4" t="s">
+        <v>138</v>
+      </c>
+      <c r="D82" s="16" t="s">
         <v>139</v>
-      </c>
-      <c r="D82" s="19" t="s">
-        <v>140</v>
       </c>
       <c r="E82" s="5"/>
       <c r="F82" s="5"/>
-      <c r="G82" s="42"/>
-      <c r="H82" s="42"/>
-      <c r="I82" s="42"/>
-      <c r="J82" s="42"/>
-      <c r="K82" s="42"/>
+      <c r="G82" s="30"/>
+      <c r="H82" s="30"/>
+      <c r="I82" s="30"/>
+      <c r="J82" s="30"/>
+      <c r="K82" s="30"/>
       <c r="L82" s="5"/>
     </row>
     <row r="83" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B83" s="21"/>
+      <c r="B83" s="18"/>
       <c r="C83" s="6"/>
-      <c r="D83" s="20"/>
+      <c r="D83" s="17"/>
       <c r="E83" s="8"/>
       <c r="F83" s="8"/>
       <c r="G83" s="12"/>
@@ -3360,368 +3433,368 @@
       <c r="L83" s="8"/>
     </row>
     <row r="84" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B84" s="14" t="s">
+      <c r="B84" s="43" t="s">
+        <v>140</v>
+      </c>
+      <c r="C84" s="20">
+        <v>12.1</v>
+      </c>
+      <c r="D84" s="15" t="s">
         <v>141</v>
-      </c>
-      <c r="C84" s="23">
-        <v>12.1</v>
-      </c>
-      <c r="D84" s="18" t="s">
-        <v>142</v>
       </c>
       <c r="E84" s="3"/>
       <c r="F84" s="3"/>
-      <c r="G84" s="41"/>
-      <c r="H84" s="41"/>
-      <c r="I84" s="41"/>
-      <c r="J84" s="41"/>
-      <c r="K84" s="41"/>
+      <c r="G84" s="29"/>
+      <c r="H84" s="29"/>
+      <c r="I84" s="29"/>
+      <c r="J84" s="29"/>
+      <c r="K84" s="29"/>
       <c r="L84" s="3"/>
     </row>
     <row r="85" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B85" s="14"/>
+      <c r="B85" s="43"/>
       <c r="C85" s="4" t="s">
+        <v>142</v>
+      </c>
+      <c r="D85" s="16" t="s">
         <v>143</v>
-      </c>
-      <c r="D85" s="19" t="s">
-        <v>144</v>
       </c>
       <c r="E85" s="5"/>
       <c r="F85" s="5"/>
-      <c r="G85" s="42"/>
-      <c r="H85" s="42"/>
-      <c r="I85" s="42"/>
-      <c r="J85" s="42"/>
-      <c r="K85" s="42"/>
+      <c r="G85" s="30"/>
+      <c r="H85" s="30"/>
+      <c r="I85" s="30"/>
+      <c r="J85" s="30"/>
+      <c r="K85" s="30"/>
       <c r="L85" s="5"/>
     </row>
     <row r="86" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B86" s="14"/>
+      <c r="B86" s="43"/>
       <c r="C86" s="4" t="s">
+        <v>144</v>
+      </c>
+      <c r="D86" s="16" t="s">
         <v>145</v>
-      </c>
-      <c r="D86" s="19" t="s">
-        <v>146</v>
       </c>
       <c r="E86" s="5"/>
       <c r="F86" s="5"/>
-      <c r="G86" s="42"/>
-      <c r="H86" s="42"/>
-      <c r="I86" s="42"/>
-      <c r="J86" s="42"/>
-      <c r="K86" s="42"/>
+      <c r="G86" s="30"/>
+      <c r="H86" s="30"/>
+      <c r="I86" s="30"/>
+      <c r="J86" s="30"/>
+      <c r="K86" s="30"/>
       <c r="L86" s="5"/>
     </row>
     <row r="87" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B87" s="14"/>
+      <c r="B87" s="43"/>
       <c r="C87" s="4" t="s">
+        <v>146</v>
+      </c>
+      <c r="D87" s="16" t="s">
         <v>147</v>
-      </c>
-      <c r="D87" s="19" t="s">
-        <v>148</v>
       </c>
       <c r="E87" s="5"/>
       <c r="F87" s="5"/>
-      <c r="G87" s="42"/>
-      <c r="H87" s="42"/>
-      <c r="I87" s="42"/>
-      <c r="J87" s="42"/>
-      <c r="K87" s="42"/>
+      <c r="G87" s="30"/>
+      <c r="H87" s="30"/>
+      <c r="I87" s="30"/>
+      <c r="J87" s="30"/>
+      <c r="K87" s="30"/>
       <c r="L87" s="5"/>
     </row>
     <row r="88" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B88" s="14"/>
+      <c r="B88" s="43"/>
       <c r="C88" s="4" t="s">
+        <v>148</v>
+      </c>
+      <c r="D88" s="16" t="s">
         <v>149</v>
-      </c>
-      <c r="D88" s="19" t="s">
-        <v>150</v>
       </c>
       <c r="E88" s="5"/>
       <c r="F88" s="5"/>
-      <c r="G88" s="42"/>
-      <c r="H88" s="42"/>
-      <c r="I88" s="42"/>
-      <c r="J88" s="42"/>
-      <c r="K88" s="42"/>
+      <c r="G88" s="30"/>
+      <c r="H88" s="30"/>
+      <c r="I88" s="30"/>
+      <c r="J88" s="30"/>
+      <c r="K88" s="30"/>
       <c r="L88" s="5"/>
     </row>
     <row r="89" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B89" s="14"/>
-      <c r="C89" s="23">
+      <c r="B89" s="43"/>
+      <c r="C89" s="20">
         <v>12.2</v>
       </c>
-      <c r="D89" s="18" t="s">
-        <v>151</v>
+      <c r="D89" s="15" t="s">
+        <v>150</v>
       </c>
       <c r="E89" s="3"/>
       <c r="F89" s="3"/>
-      <c r="G89" s="41"/>
-      <c r="H89" s="41"/>
-      <c r="I89" s="41"/>
-      <c r="J89" s="41"/>
-      <c r="K89" s="41"/>
+      <c r="G89" s="29"/>
+      <c r="H89" s="29"/>
+      <c r="I89" s="29"/>
+      <c r="J89" s="29"/>
+      <c r="K89" s="29"/>
       <c r="L89" s="3"/>
     </row>
     <row r="90" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B90" s="14"/>
+      <c r="B90" s="43"/>
       <c r="C90" s="4" t="s">
+        <v>151</v>
+      </c>
+      <c r="D90" s="16" t="s">
         <v>152</v>
-      </c>
-      <c r="D90" s="19" t="s">
-        <v>153</v>
       </c>
       <c r="E90" s="5"/>
       <c r="F90" s="5"/>
-      <c r="G90" s="42"/>
-      <c r="H90" s="42"/>
-      <c r="I90" s="42"/>
-      <c r="J90" s="42"/>
-      <c r="K90" s="42"/>
+      <c r="G90" s="30"/>
+      <c r="H90" s="30"/>
+      <c r="I90" s="30"/>
+      <c r="J90" s="30"/>
+      <c r="K90" s="30"/>
       <c r="L90" s="5"/>
     </row>
     <row r="91" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B91" s="14"/>
-      <c r="C91" s="23">
+      <c r="B91" s="43"/>
+      <c r="C91" s="20">
         <v>12.3</v>
       </c>
-      <c r="D91" s="18" t="s">
-        <v>154</v>
+      <c r="D91" s="15" t="s">
+        <v>153</v>
       </c>
       <c r="E91" s="3"/>
       <c r="F91" s="3"/>
-      <c r="G91" s="41"/>
-      <c r="H91" s="41"/>
-      <c r="I91" s="41"/>
-      <c r="J91" s="41"/>
-      <c r="K91" s="41"/>
+      <c r="G91" s="29"/>
+      <c r="H91" s="29"/>
+      <c r="I91" s="29"/>
+      <c r="J91" s="29"/>
+      <c r="K91" s="29"/>
       <c r="L91" s="3"/>
     </row>
     <row r="92" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B92" s="14"/>
+      <c r="B92" s="43"/>
       <c r="C92" s="4" t="s">
+        <v>154</v>
+      </c>
+      <c r="D92" s="16" t="s">
         <v>155</v>
-      </c>
-      <c r="D92" s="19" t="s">
-        <v>156</v>
       </c>
       <c r="E92" s="5"/>
       <c r="F92" s="5"/>
-      <c r="G92" s="42"/>
-      <c r="H92" s="42"/>
-      <c r="I92" s="42"/>
-      <c r="J92" s="42"/>
-      <c r="K92" s="42"/>
+      <c r="G92" s="30"/>
+      <c r="H92" s="30"/>
+      <c r="I92" s="30"/>
+      <c r="J92" s="30"/>
+      <c r="K92" s="30"/>
       <c r="L92" s="5"/>
     </row>
     <row r="93" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B93" s="14"/>
-      <c r="C93" s="23">
+      <c r="B93" s="43"/>
+      <c r="C93" s="20">
         <v>12.4</v>
       </c>
-      <c r="D93" s="18" t="s">
-        <v>157</v>
+      <c r="D93" s="15" t="s">
+        <v>156</v>
       </c>
       <c r="E93" s="3"/>
       <c r="F93" s="3"/>
-      <c r="G93" s="41"/>
-      <c r="H93" s="41"/>
-      <c r="I93" s="41"/>
-      <c r="J93" s="41"/>
-      <c r="K93" s="41"/>
+      <c r="G93" s="29"/>
+      <c r="H93" s="29"/>
+      <c r="I93" s="29"/>
+      <c r="J93" s="29"/>
+      <c r="K93" s="29"/>
       <c r="L93" s="3"/>
     </row>
     <row r="94" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B94" s="14"/>
+      <c r="B94" s="43"/>
       <c r="C94" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="D94" s="16" t="s">
         <v>158</v>
-      </c>
-      <c r="D94" s="19" t="s">
-        <v>159</v>
       </c>
       <c r="E94" s="5"/>
       <c r="F94" s="5"/>
-      <c r="G94" s="42"/>
-      <c r="H94" s="42"/>
-      <c r="I94" s="42"/>
-      <c r="J94" s="42"/>
-      <c r="K94" s="42"/>
+      <c r="G94" s="30"/>
+      <c r="H94" s="30"/>
+      <c r="I94" s="30"/>
+      <c r="J94" s="30"/>
+      <c r="K94" s="30"/>
       <c r="L94" s="5"/>
     </row>
     <row r="95" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B95" s="14"/>
+      <c r="B95" s="43"/>
       <c r="C95" s="4" t="s">
+        <v>159</v>
+      </c>
+      <c r="D95" s="16" t="s">
         <v>160</v>
-      </c>
-      <c r="D95" s="19" t="s">
-        <v>161</v>
       </c>
       <c r="E95" s="5"/>
       <c r="F95" s="5"/>
-      <c r="G95" s="42"/>
-      <c r="H95" s="42"/>
-      <c r="I95" s="42"/>
-      <c r="J95" s="42"/>
-      <c r="K95" s="42"/>
+      <c r="G95" s="30"/>
+      <c r="H95" s="30"/>
+      <c r="I95" s="30"/>
+      <c r="J95" s="30"/>
+      <c r="K95" s="30"/>
       <c r="L95" s="5"/>
     </row>
     <row r="96" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B96" s="14"/>
+      <c r="B96" s="43"/>
       <c r="C96" s="4" t="s">
+        <v>161</v>
+      </c>
+      <c r="D96" s="16" t="s">
         <v>162</v>
-      </c>
-      <c r="D96" s="19" t="s">
-        <v>163</v>
       </c>
       <c r="E96" s="5"/>
       <c r="F96" s="5"/>
-      <c r="G96" s="42"/>
-      <c r="H96" s="42"/>
-      <c r="I96" s="42"/>
-      <c r="J96" s="42"/>
-      <c r="K96" s="42"/>
+      <c r="G96" s="30"/>
+      <c r="H96" s="30"/>
+      <c r="I96" s="30"/>
+      <c r="J96" s="30"/>
+      <c r="K96" s="30"/>
       <c r="L96" s="5"/>
     </row>
     <row r="97" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B97" s="14"/>
+      <c r="B97" s="43"/>
       <c r="C97" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="D97" s="16" t="s">
         <v>164</v>
-      </c>
-      <c r="D97" s="19" t="s">
-        <v>165</v>
       </c>
       <c r="E97" s="5"/>
       <c r="F97" s="5"/>
-      <c r="G97" s="42"/>
-      <c r="H97" s="42"/>
-      <c r="I97" s="42"/>
-      <c r="J97" s="42"/>
-      <c r="K97" s="42"/>
+      <c r="G97" s="30"/>
+      <c r="H97" s="30"/>
+      <c r="I97" s="30"/>
+      <c r="J97" s="30"/>
+      <c r="K97" s="30"/>
       <c r="L97" s="5"/>
     </row>
     <row r="98" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B98" s="14"/>
-      <c r="C98" s="23">
+      <c r="B98" s="43"/>
+      <c r="C98" s="20">
         <v>12.5</v>
       </c>
-      <c r="D98" s="18" t="s">
-        <v>166</v>
+      <c r="D98" s="15" t="s">
+        <v>165</v>
       </c>
       <c r="E98" s="3"/>
       <c r="F98" s="3"/>
-      <c r="G98" s="41"/>
-      <c r="H98" s="41"/>
-      <c r="I98" s="41"/>
-      <c r="J98" s="41"/>
-      <c r="K98" s="41"/>
+      <c r="G98" s="29"/>
+      <c r="H98" s="29"/>
+      <c r="I98" s="29"/>
+      <c r="J98" s="29"/>
+      <c r="K98" s="29"/>
       <c r="L98" s="3"/>
     </row>
     <row r="99" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B99" s="14"/>
+      <c r="B99" s="43"/>
       <c r="C99" s="4" t="s">
+        <v>166</v>
+      </c>
+      <c r="D99" s="16" t="s">
         <v>167</v>
-      </c>
-      <c r="D99" s="19" t="s">
-        <v>168</v>
       </c>
       <c r="E99" s="5"/>
       <c r="F99" s="5"/>
-      <c r="G99" s="42"/>
-      <c r="H99" s="42"/>
-      <c r="I99" s="42"/>
-      <c r="J99" s="42"/>
-      <c r="K99" s="42"/>
+      <c r="G99" s="30"/>
+      <c r="H99" s="30"/>
+      <c r="I99" s="30"/>
+      <c r="J99" s="30"/>
+      <c r="K99" s="30"/>
       <c r="L99" s="5"/>
     </row>
     <row r="100" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B100" s="14"/>
-      <c r="C100" s="23">
+      <c r="B100" s="43"/>
+      <c r="C100" s="20">
         <v>12.6</v>
       </c>
-      <c r="D100" s="18" t="s">
-        <v>169</v>
+      <c r="D100" s="15" t="s">
+        <v>168</v>
       </c>
       <c r="E100" s="3"/>
       <c r="F100" s="3"/>
-      <c r="G100" s="41"/>
-      <c r="H100" s="41"/>
-      <c r="I100" s="41"/>
-      <c r="J100" s="41"/>
-      <c r="K100" s="41"/>
+      <c r="G100" s="29"/>
+      <c r="H100" s="29"/>
+      <c r="I100" s="29"/>
+      <c r="J100" s="29"/>
+      <c r="K100" s="29"/>
       <c r="L100" s="3"/>
     </row>
     <row r="101" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B101" s="14"/>
+      <c r="B101" s="43"/>
       <c r="C101" s="4" t="s">
-        <v>170</v>
-      </c>
-      <c r="D101" s="19" t="s">
         <v>169</v>
+      </c>
+      <c r="D101" s="16" t="s">
+        <v>168</v>
       </c>
       <c r="E101" s="5"/>
       <c r="F101" s="5"/>
-      <c r="G101" s="42"/>
-      <c r="H101" s="42"/>
-      <c r="I101" s="42"/>
-      <c r="J101" s="42"/>
-      <c r="K101" s="42"/>
+      <c r="G101" s="30"/>
+      <c r="H101" s="30"/>
+      <c r="I101" s="30"/>
+      <c r="J101" s="30"/>
+      <c r="K101" s="30"/>
       <c r="L101" s="5"/>
     </row>
     <row r="102" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B102" s="14"/>
+      <c r="B102" s="43"/>
       <c r="C102" s="4" t="s">
+        <v>170</v>
+      </c>
+      <c r="D102" s="16" t="s">
         <v>171</v>
-      </c>
-      <c r="D102" s="19" t="s">
-        <v>172</v>
       </c>
       <c r="E102" s="5"/>
       <c r="F102" s="5"/>
-      <c r="G102" s="42"/>
-      <c r="H102" s="42"/>
-      <c r="I102" s="42"/>
-      <c r="J102" s="42"/>
-      <c r="K102" s="42"/>
+      <c r="G102" s="30"/>
+      <c r="H102" s="30"/>
+      <c r="I102" s="30"/>
+      <c r="J102" s="30"/>
+      <c r="K102" s="30"/>
       <c r="L102" s="5"/>
     </row>
     <row r="103" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B103" s="14"/>
-      <c r="C103" s="23">
+      <c r="B103" s="43"/>
+      <c r="C103" s="20">
         <v>12.7</v>
       </c>
-      <c r="D103" s="18" t="s">
-        <v>173</v>
+      <c r="D103" s="15" t="s">
+        <v>172</v>
       </c>
       <c r="E103" s="3"/>
       <c r="F103" s="3"/>
-      <c r="G103" s="41"/>
-      <c r="H103" s="41"/>
-      <c r="I103" s="41"/>
-      <c r="J103" s="41"/>
-      <c r="K103" s="41"/>
+      <c r="G103" s="29"/>
+      <c r="H103" s="29"/>
+      <c r="I103" s="29"/>
+      <c r="J103" s="29"/>
+      <c r="K103" s="29"/>
       <c r="L103" s="3"/>
     </row>
     <row r="104" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B104" s="14"/>
+      <c r="B104" s="43"/>
       <c r="C104" s="4" t="s">
+        <v>173</v>
+      </c>
+      <c r="D104" s="16" t="s">
         <v>174</v>
-      </c>
-      <c r="D104" s="19" t="s">
-        <v>175</v>
       </c>
       <c r="E104" s="5"/>
       <c r="F104" s="5"/>
-      <c r="G104" s="42"/>
-      <c r="H104" s="42"/>
-      <c r="I104" s="42"/>
-      <c r="J104" s="42"/>
-      <c r="K104" s="42"/>
+      <c r="G104" s="30"/>
+      <c r="H104" s="30"/>
+      <c r="I104" s="30"/>
+      <c r="J104" s="30"/>
+      <c r="K104" s="30"/>
       <c r="L104" s="5"/>
     </row>
     <row r="105" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
       <c r="B105" s="13"/>
       <c r="C105" s="6"/>
-      <c r="D105" s="20"/>
+      <c r="D105" s="17"/>
       <c r="E105" s="8"/>
       <c r="F105" s="8"/>
       <c r="G105" s="12"/>
@@ -3732,164 +3805,164 @@
       <c r="L105" s="8"/>
     </row>
     <row r="106" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B106" s="14" t="s">
+      <c r="B106" s="43" t="s">
+        <v>175</v>
+      </c>
+      <c r="C106" s="20">
+        <v>13.1</v>
+      </c>
+      <c r="D106" s="15" t="s">
         <v>176</v>
-      </c>
-      <c r="C106" s="23">
-        <v>13.1</v>
-      </c>
-      <c r="D106" s="18" t="s">
-        <v>177</v>
       </c>
       <c r="E106" s="3"/>
       <c r="F106" s="3"/>
-      <c r="G106" s="41"/>
-      <c r="H106" s="41"/>
-      <c r="I106" s="41"/>
-      <c r="J106" s="41"/>
-      <c r="K106" s="41"/>
+      <c r="G106" s="29"/>
+      <c r="H106" s="29"/>
+      <c r="I106" s="29"/>
+      <c r="J106" s="29"/>
+      <c r="K106" s="29"/>
       <c r="L106" s="3"/>
     </row>
     <row r="107" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B107" s="14"/>
+      <c r="B107" s="43"/>
       <c r="C107" s="4" t="s">
+        <v>177</v>
+      </c>
+      <c r="D107" s="16" t="s">
         <v>178</v>
-      </c>
-      <c r="D107" s="19" t="s">
-        <v>179</v>
       </c>
       <c r="E107" s="5"/>
       <c r="F107" s="5"/>
-      <c r="G107" s="42"/>
-      <c r="H107" s="42"/>
-      <c r="I107" s="42"/>
-      <c r="J107" s="42"/>
-      <c r="K107" s="42"/>
+      <c r="G107" s="30"/>
+      <c r="H107" s="30"/>
+      <c r="I107" s="30"/>
+      <c r="J107" s="30"/>
+      <c r="K107" s="30"/>
       <c r="L107" s="5"/>
     </row>
     <row r="108" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B108" s="14"/>
+      <c r="B108" s="43"/>
       <c r="C108" s="4" t="s">
+        <v>179</v>
+      </c>
+      <c r="D108" s="16" t="s">
         <v>180</v>
-      </c>
-      <c r="D108" s="19" t="s">
-        <v>181</v>
       </c>
       <c r="E108" s="5"/>
       <c r="F108" s="5"/>
-      <c r="G108" s="42"/>
-      <c r="H108" s="42"/>
-      <c r="I108" s="42"/>
-      <c r="J108" s="42"/>
-      <c r="K108" s="42"/>
+      <c r="G108" s="30"/>
+      <c r="H108" s="30"/>
+      <c r="I108" s="30"/>
+      <c r="J108" s="30"/>
+      <c r="K108" s="30"/>
       <c r="L108" s="5"/>
     </row>
     <row r="109" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B109" s="14"/>
+      <c r="B109" s="43"/>
       <c r="C109" s="4" t="s">
+        <v>181</v>
+      </c>
+      <c r="D109" s="16" t="s">
         <v>182</v>
-      </c>
-      <c r="D109" s="19" t="s">
-        <v>183</v>
       </c>
       <c r="E109" s="5"/>
       <c r="F109" s="5"/>
-      <c r="G109" s="42"/>
-      <c r="H109" s="42"/>
-      <c r="I109" s="42"/>
-      <c r="J109" s="42"/>
-      <c r="K109" s="42"/>
+      <c r="G109" s="30"/>
+      <c r="H109" s="30"/>
+      <c r="I109" s="30"/>
+      <c r="J109" s="30"/>
+      <c r="K109" s="30"/>
       <c r="L109" s="5"/>
     </row>
     <row r="110" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B110" s="14"/>
-      <c r="C110" s="23">
+      <c r="B110" s="43"/>
+      <c r="C110" s="20">
         <v>13.2</v>
       </c>
-      <c r="D110" s="18" t="s">
-        <v>184</v>
+      <c r="D110" s="15" t="s">
+        <v>183</v>
       </c>
       <c r="E110" s="3"/>
       <c r="F110" s="3"/>
-      <c r="G110" s="41"/>
-      <c r="H110" s="41"/>
-      <c r="I110" s="41"/>
-      <c r="J110" s="41"/>
-      <c r="K110" s="41"/>
+      <c r="G110" s="29"/>
+      <c r="H110" s="29"/>
+      <c r="I110" s="29"/>
+      <c r="J110" s="29"/>
+      <c r="K110" s="29"/>
       <c r="L110" s="3"/>
     </row>
     <row r="111" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B111" s="14"/>
+      <c r="B111" s="43"/>
       <c r="C111" s="4" t="s">
+        <v>184</v>
+      </c>
+      <c r="D111" s="16" t="s">
         <v>185</v>
-      </c>
-      <c r="D111" s="19" t="s">
-        <v>186</v>
       </c>
       <c r="E111" s="5"/>
       <c r="F111" s="5"/>
-      <c r="G111" s="42"/>
-      <c r="H111" s="42"/>
-      <c r="I111" s="42"/>
-      <c r="J111" s="42"/>
-      <c r="K111" s="42"/>
+      <c r="G111" s="30"/>
+      <c r="H111" s="30"/>
+      <c r="I111" s="30"/>
+      <c r="J111" s="30"/>
+      <c r="K111" s="30"/>
       <c r="L111" s="5"/>
     </row>
     <row r="112" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B112" s="14"/>
+      <c r="B112" s="43"/>
       <c r="C112" s="4" t="s">
+        <v>186</v>
+      </c>
+      <c r="D112" s="16" t="s">
         <v>187</v>
-      </c>
-      <c r="D112" s="19" t="s">
-        <v>188</v>
       </c>
       <c r="E112" s="5"/>
       <c r="F112" s="5"/>
-      <c r="G112" s="42"/>
-      <c r="H112" s="42"/>
-      <c r="I112" s="42"/>
-      <c r="J112" s="42"/>
-      <c r="K112" s="42"/>
+      <c r="G112" s="30"/>
+      <c r="H112" s="30"/>
+      <c r="I112" s="30"/>
+      <c r="J112" s="30"/>
+      <c r="K112" s="30"/>
       <c r="L112" s="5"/>
     </row>
     <row r="113" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B113" s="14"/>
+      <c r="B113" s="43"/>
       <c r="C113" s="4" t="s">
+        <v>188</v>
+      </c>
+      <c r="D113" s="16" t="s">
         <v>189</v>
-      </c>
-      <c r="D113" s="19" t="s">
-        <v>190</v>
       </c>
       <c r="E113" s="5"/>
       <c r="F113" s="5"/>
-      <c r="G113" s="42"/>
-      <c r="H113" s="42"/>
-      <c r="I113" s="42"/>
-      <c r="J113" s="42"/>
-      <c r="K113" s="42"/>
+      <c r="G113" s="30"/>
+      <c r="H113" s="30"/>
+      <c r="I113" s="30"/>
+      <c r="J113" s="30"/>
+      <c r="K113" s="30"/>
       <c r="L113" s="5"/>
     </row>
     <row r="114" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B114" s="14"/>
+      <c r="B114" s="43"/>
       <c r="C114" s="4" t="s">
+        <v>190</v>
+      </c>
+      <c r="D114" s="16" t="s">
         <v>191</v>
-      </c>
-      <c r="D114" s="19" t="s">
-        <v>192</v>
       </c>
       <c r="E114" s="5"/>
       <c r="F114" s="5"/>
-      <c r="G114" s="42"/>
-      <c r="H114" s="42"/>
-      <c r="I114" s="42"/>
-      <c r="J114" s="42"/>
-      <c r="K114" s="42"/>
+      <c r="G114" s="30"/>
+      <c r="H114" s="30"/>
+      <c r="I114" s="30"/>
+      <c r="J114" s="30"/>
+      <c r="K114" s="30"/>
       <c r="L114" s="5"/>
     </row>
     <row r="115" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B115" s="21"/>
+      <c r="B115" s="18"/>
       <c r="C115" s="6"/>
-      <c r="D115" s="20"/>
+      <c r="D115" s="17"/>
       <c r="E115" s="8"/>
       <c r="F115" s="8"/>
       <c r="G115" s="12"/>
@@ -3900,283 +3973,283 @@
       <c r="L115" s="8"/>
     </row>
     <row r="116" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B116" s="14" t="s">
+      <c r="B116" s="43" t="s">
+        <v>192</v>
+      </c>
+      <c r="C116" s="20">
+        <v>14.1</v>
+      </c>
+      <c r="D116" s="15" t="s">
         <v>193</v>
-      </c>
-      <c r="C116" s="23">
-        <v>14.1</v>
-      </c>
-      <c r="D116" s="18" t="s">
-        <v>194</v>
       </c>
       <c r="E116" s="3"/>
       <c r="F116" s="3"/>
-      <c r="G116" s="41"/>
-      <c r="H116" s="41"/>
-      <c r="I116" s="41"/>
-      <c r="J116" s="41"/>
-      <c r="K116" s="41"/>
+      <c r="G116" s="29"/>
+      <c r="H116" s="29"/>
+      <c r="I116" s="29"/>
+      <c r="J116" s="29"/>
+      <c r="K116" s="29"/>
       <c r="L116" s="3"/>
     </row>
     <row r="117" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B117" s="14"/>
+      <c r="B117" s="43"/>
       <c r="C117" s="4" t="s">
+        <v>194</v>
+      </c>
+      <c r="D117" s="16" t="s">
         <v>195</v>
-      </c>
-      <c r="D117" s="19" t="s">
-        <v>196</v>
       </c>
       <c r="E117" s="5"/>
       <c r="F117" s="5"/>
-      <c r="G117" s="42"/>
-      <c r="H117" s="42"/>
-      <c r="I117" s="42"/>
-      <c r="J117" s="42"/>
-      <c r="K117" s="42"/>
+      <c r="G117" s="30"/>
+      <c r="H117" s="30"/>
+      <c r="I117" s="30"/>
+      <c r="J117" s="30"/>
+      <c r="K117" s="30"/>
       <c r="L117" s="5"/>
     </row>
     <row r="118" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B118" s="14"/>
+      <c r="B118" s="43"/>
       <c r="C118" s="4" t="s">
+        <v>196</v>
+      </c>
+      <c r="D118" s="16" t="s">
         <v>197</v>
-      </c>
-      <c r="D118" s="19" t="s">
-        <v>198</v>
       </c>
       <c r="E118" s="5"/>
       <c r="F118" s="5"/>
-      <c r="G118" s="42"/>
-      <c r="H118" s="42"/>
-      <c r="I118" s="42"/>
-      <c r="J118" s="42"/>
-      <c r="K118" s="42"/>
+      <c r="G118" s="30"/>
+      <c r="H118" s="30"/>
+      <c r="I118" s="30"/>
+      <c r="J118" s="30"/>
+      <c r="K118" s="30"/>
       <c r="L118" s="5"/>
     </row>
     <row r="119" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B119" s="14"/>
+      <c r="B119" s="43"/>
       <c r="C119" s="4" t="s">
+        <v>198</v>
+      </c>
+      <c r="D119" s="16" t="s">
         <v>199</v>
-      </c>
-      <c r="D119" s="19" t="s">
-        <v>200</v>
       </c>
       <c r="E119" s="5"/>
       <c r="F119" s="5"/>
-      <c r="G119" s="42"/>
-      <c r="H119" s="42"/>
-      <c r="I119" s="42"/>
-      <c r="J119" s="42"/>
-      <c r="K119" s="42"/>
+      <c r="G119" s="30"/>
+      <c r="H119" s="30"/>
+      <c r="I119" s="30"/>
+      <c r="J119" s="30"/>
+      <c r="K119" s="30"/>
       <c r="L119" s="5"/>
     </row>
     <row r="120" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B120" s="14"/>
-      <c r="C120" s="23">
+      <c r="B120" s="43"/>
+      <c r="C120" s="20">
         <v>14.2</v>
       </c>
-      <c r="D120" s="18" t="s">
-        <v>201</v>
+      <c r="D120" s="15" t="s">
+        <v>200</v>
       </c>
       <c r="E120" s="3"/>
       <c r="F120" s="3"/>
-      <c r="G120" s="41"/>
-      <c r="H120" s="41"/>
-      <c r="I120" s="41"/>
-      <c r="J120" s="41"/>
-      <c r="K120" s="41"/>
+      <c r="G120" s="29"/>
+      <c r="H120" s="29"/>
+      <c r="I120" s="29"/>
+      <c r="J120" s="29"/>
+      <c r="K120" s="29"/>
       <c r="L120" s="3"/>
     </row>
     <row r="121" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B121" s="14"/>
+      <c r="B121" s="43"/>
       <c r="C121" s="4" t="s">
+        <v>201</v>
+      </c>
+      <c r="D121" s="16" t="s">
         <v>202</v>
-      </c>
-      <c r="D121" s="19" t="s">
-        <v>203</v>
       </c>
       <c r="E121" s="5"/>
       <c r="F121" s="5"/>
-      <c r="G121" s="42"/>
-      <c r="H121" s="42"/>
-      <c r="I121" s="42"/>
-      <c r="J121" s="42"/>
-      <c r="K121" s="42"/>
+      <c r="G121" s="30"/>
+      <c r="H121" s="30"/>
+      <c r="I121" s="30"/>
+      <c r="J121" s="30"/>
+      <c r="K121" s="30"/>
       <c r="L121" s="5"/>
     </row>
     <row r="122" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B122" s="14"/>
+      <c r="B122" s="43"/>
       <c r="C122" s="4" t="s">
+        <v>203</v>
+      </c>
+      <c r="D122" s="16" t="s">
         <v>204</v>
-      </c>
-      <c r="D122" s="19" t="s">
-        <v>205</v>
       </c>
       <c r="E122" s="5"/>
       <c r="F122" s="5"/>
-      <c r="G122" s="42"/>
-      <c r="H122" s="42"/>
-      <c r="I122" s="42"/>
-      <c r="J122" s="42"/>
-      <c r="K122" s="42"/>
+      <c r="G122" s="30"/>
+      <c r="H122" s="30"/>
+      <c r="I122" s="30"/>
+      <c r="J122" s="30"/>
+      <c r="K122" s="30"/>
       <c r="L122" s="5"/>
     </row>
     <row r="123" spans="2:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B123" s="14"/>
+      <c r="B123" s="43"/>
       <c r="C123" s="4" t="s">
+        <v>205</v>
+      </c>
+      <c r="D123" s="16" t="s">
         <v>206</v>
-      </c>
-      <c r="D123" s="19" t="s">
-        <v>207</v>
       </c>
       <c r="E123" s="5"/>
       <c r="F123" s="5"/>
-      <c r="G123" s="42"/>
-      <c r="H123" s="42"/>
-      <c r="I123" s="42"/>
-      <c r="J123" s="42"/>
-      <c r="K123" s="42"/>
+      <c r="G123" s="30"/>
+      <c r="H123" s="30"/>
+      <c r="I123" s="30"/>
+      <c r="J123" s="30"/>
+      <c r="K123" s="30"/>
       <c r="L123" s="5"/>
     </row>
     <row r="124" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B124" s="14"/>
+      <c r="B124" s="43"/>
       <c r="C124" s="4" t="s">
+        <v>207</v>
+      </c>
+      <c r="D124" s="16" t="s">
         <v>208</v>
-      </c>
-      <c r="D124" s="19" t="s">
-        <v>209</v>
       </c>
       <c r="E124" s="5"/>
       <c r="F124" s="5"/>
-      <c r="G124" s="42"/>
-      <c r="H124" s="42"/>
-      <c r="I124" s="42"/>
-      <c r="J124" s="42"/>
-      <c r="K124" s="42"/>
+      <c r="G124" s="30"/>
+      <c r="H124" s="30"/>
+      <c r="I124" s="30"/>
+      <c r="J124" s="30"/>
+      <c r="K124" s="30"/>
       <c r="L124" s="5"/>
     </row>
     <row r="125" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B125" s="14"/>
+      <c r="B125" s="43"/>
       <c r="C125" s="4" t="s">
+        <v>209</v>
+      </c>
+      <c r="D125" s="16" t="s">
         <v>210</v>
-      </c>
-      <c r="D125" s="19" t="s">
-        <v>211</v>
       </c>
       <c r="E125" s="5"/>
       <c r="F125" s="5"/>
-      <c r="G125" s="42"/>
-      <c r="H125" s="42"/>
-      <c r="I125" s="42"/>
-      <c r="J125" s="42"/>
-      <c r="K125" s="42"/>
+      <c r="G125" s="30"/>
+      <c r="H125" s="30"/>
+      <c r="I125" s="30"/>
+      <c r="J125" s="30"/>
+      <c r="K125" s="30"/>
       <c r="L125" s="5"/>
     </row>
     <row r="126" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B126" s="14"/>
+      <c r="B126" s="43"/>
       <c r="C126" s="4" t="s">
+        <v>211</v>
+      </c>
+      <c r="D126" s="16" t="s">
         <v>212</v>
-      </c>
-      <c r="D126" s="19" t="s">
-        <v>213</v>
       </c>
       <c r="E126" s="5"/>
       <c r="F126" s="5"/>
-      <c r="G126" s="42"/>
-      <c r="H126" s="42"/>
-      <c r="I126" s="42"/>
-      <c r="J126" s="42"/>
-      <c r="K126" s="42"/>
+      <c r="G126" s="30"/>
+      <c r="H126" s="30"/>
+      <c r="I126" s="30"/>
+      <c r="J126" s="30"/>
+      <c r="K126" s="30"/>
       <c r="L126" s="5"/>
     </row>
     <row r="127" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B127" s="14"/>
+      <c r="B127" s="43"/>
       <c r="C127" s="4" t="s">
+        <v>213</v>
+      </c>
+      <c r="D127" s="16" t="s">
         <v>214</v>
-      </c>
-      <c r="D127" s="19" t="s">
-        <v>215</v>
       </c>
       <c r="E127" s="5"/>
       <c r="F127" s="5"/>
-      <c r="G127" s="42"/>
-      <c r="H127" s="42"/>
-      <c r="I127" s="42"/>
-      <c r="J127" s="42"/>
-      <c r="K127" s="42"/>
+      <c r="G127" s="30"/>
+      <c r="H127" s="30"/>
+      <c r="I127" s="30"/>
+      <c r="J127" s="30"/>
+      <c r="K127" s="30"/>
       <c r="L127" s="5"/>
     </row>
     <row r="128" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B128" s="14"/>
+      <c r="B128" s="43"/>
       <c r="C128" s="4" t="s">
+        <v>215</v>
+      </c>
+      <c r="D128" s="16" t="s">
         <v>216</v>
-      </c>
-      <c r="D128" s="19" t="s">
-        <v>217</v>
       </c>
       <c r="E128" s="5"/>
       <c r="F128" s="5"/>
-      <c r="G128" s="42"/>
-      <c r="H128" s="42"/>
-      <c r="I128" s="42"/>
-      <c r="J128" s="42"/>
-      <c r="K128" s="42"/>
+      <c r="G128" s="30"/>
+      <c r="H128" s="30"/>
+      <c r="I128" s="30"/>
+      <c r="J128" s="30"/>
+      <c r="K128" s="30"/>
       <c r="L128" s="5"/>
     </row>
     <row r="129" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B129" s="14"/>
+      <c r="B129" s="43"/>
       <c r="C129" s="4" t="s">
+        <v>217</v>
+      </c>
+      <c r="D129" s="16" t="s">
         <v>218</v>
-      </c>
-      <c r="D129" s="19" t="s">
-        <v>219</v>
       </c>
       <c r="E129" s="5"/>
       <c r="F129" s="5"/>
-      <c r="G129" s="42"/>
-      <c r="H129" s="42"/>
-      <c r="I129" s="42"/>
-      <c r="J129" s="42"/>
-      <c r="K129" s="42"/>
+      <c r="G129" s="30"/>
+      <c r="H129" s="30"/>
+      <c r="I129" s="30"/>
+      <c r="J129" s="30"/>
+      <c r="K129" s="30"/>
       <c r="L129" s="5"/>
     </row>
     <row r="130" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B130" s="14"/>
-      <c r="C130" s="23">
+      <c r="B130" s="43"/>
+      <c r="C130" s="20">
         <v>14.3</v>
       </c>
-      <c r="D130" s="18" t="s">
-        <v>220</v>
+      <c r="D130" s="15" t="s">
+        <v>219</v>
       </c>
       <c r="E130" s="3"/>
       <c r="F130" s="3"/>
-      <c r="G130" s="41"/>
-      <c r="H130" s="41"/>
-      <c r="I130" s="41"/>
-      <c r="J130" s="41"/>
-      <c r="K130" s="41"/>
+      <c r="G130" s="29"/>
+      <c r="H130" s="29"/>
+      <c r="I130" s="29"/>
+      <c r="J130" s="29"/>
+      <c r="K130" s="29"/>
       <c r="L130" s="3"/>
     </row>
     <row r="131" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B131" s="14"/>
+      <c r="B131" s="43"/>
       <c r="C131" s="4" t="s">
+        <v>220</v>
+      </c>
+      <c r="D131" s="16" t="s">
         <v>221</v>
-      </c>
-      <c r="D131" s="19" t="s">
-        <v>222</v>
       </c>
       <c r="E131" s="5"/>
       <c r="F131" s="5"/>
-      <c r="G131" s="42"/>
-      <c r="H131" s="42"/>
-      <c r="I131" s="42"/>
-      <c r="J131" s="42"/>
-      <c r="K131" s="42"/>
+      <c r="G131" s="30"/>
+      <c r="H131" s="30"/>
+      <c r="I131" s="30"/>
+      <c r="J131" s="30"/>
+      <c r="K131" s="30"/>
       <c r="L131" s="5"/>
     </row>
     <row r="132" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B132" s="21"/>
+      <c r="B132" s="18"/>
       <c r="C132" s="6"/>
-      <c r="D132" s="20"/>
+      <c r="D132" s="17"/>
       <c r="E132" s="8"/>
       <c r="F132" s="8"/>
       <c r="G132" s="12"/>
@@ -4187,130 +4260,130 @@
       <c r="L132" s="8"/>
     </row>
     <row r="133" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B133" s="14" t="s">
+      <c r="B133" s="43" t="s">
+        <v>222</v>
+      </c>
+      <c r="C133" s="20">
+        <v>15.1</v>
+      </c>
+      <c r="D133" s="15" t="s">
         <v>223</v>
-      </c>
-      <c r="C133" s="23">
-        <v>15.1</v>
-      </c>
-      <c r="D133" s="18" t="s">
-        <v>224</v>
       </c>
       <c r="E133" s="3"/>
       <c r="F133" s="3"/>
-      <c r="G133" s="41"/>
-      <c r="H133" s="41"/>
-      <c r="I133" s="41"/>
-      <c r="J133" s="41"/>
-      <c r="K133" s="41"/>
+      <c r="G133" s="29"/>
+      <c r="H133" s="29"/>
+      <c r="I133" s="29"/>
+      <c r="J133" s="29"/>
+      <c r="K133" s="29"/>
       <c r="L133" s="3"/>
     </row>
     <row r="134" spans="2:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B134" s="14"/>
+      <c r="B134" s="43"/>
       <c r="C134" s="4" t="s">
+        <v>224</v>
+      </c>
+      <c r="D134" s="16" t="s">
         <v>225</v>
-      </c>
-      <c r="D134" s="19" t="s">
-        <v>226</v>
       </c>
       <c r="E134" s="5"/>
       <c r="F134" s="5"/>
-      <c r="G134" s="42"/>
-      <c r="H134" s="42"/>
-      <c r="I134" s="42"/>
-      <c r="J134" s="42"/>
-      <c r="K134" s="42"/>
+      <c r="G134" s="30"/>
+      <c r="H134" s="30"/>
+      <c r="I134" s="30"/>
+      <c r="J134" s="30"/>
+      <c r="K134" s="30"/>
       <c r="L134" s="5"/>
     </row>
     <row r="135" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B135" s="14"/>
+      <c r="B135" s="43"/>
       <c r="C135" s="4" t="s">
+        <v>226</v>
+      </c>
+      <c r="D135" s="16" t="s">
         <v>227</v>
-      </c>
-      <c r="D135" s="19" t="s">
-        <v>228</v>
       </c>
       <c r="E135" s="5"/>
       <c r="F135" s="5"/>
-      <c r="G135" s="42"/>
-      <c r="H135" s="42"/>
-      <c r="I135" s="42"/>
-      <c r="J135" s="42"/>
-      <c r="K135" s="42"/>
+      <c r="G135" s="30"/>
+      <c r="H135" s="30"/>
+      <c r="I135" s="30"/>
+      <c r="J135" s="30"/>
+      <c r="K135" s="30"/>
       <c r="L135" s="5"/>
     </row>
     <row r="136" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B136" s="14"/>
+      <c r="B136" s="43"/>
       <c r="C136" s="4" t="s">
+        <v>228</v>
+      </c>
+      <c r="D136" s="16" t="s">
         <v>229</v>
-      </c>
-      <c r="D136" s="19" t="s">
-        <v>230</v>
       </c>
       <c r="E136" s="5"/>
       <c r="F136" s="5"/>
-      <c r="G136" s="42"/>
-      <c r="H136" s="42"/>
-      <c r="I136" s="42"/>
-      <c r="J136" s="42"/>
-      <c r="K136" s="42"/>
+      <c r="G136" s="30"/>
+      <c r="H136" s="30"/>
+      <c r="I136" s="30"/>
+      <c r="J136" s="30"/>
+      <c r="K136" s="30"/>
       <c r="L136" s="5"/>
     </row>
     <row r="137" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B137" s="14"/>
-      <c r="C137" s="23">
+      <c r="B137" s="43"/>
+      <c r="C137" s="20">
         <v>15.2</v>
       </c>
-      <c r="D137" s="18" t="s">
-        <v>231</v>
+      <c r="D137" s="15" t="s">
+        <v>230</v>
       </c>
       <c r="E137" s="3"/>
       <c r="F137" s="3"/>
-      <c r="G137" s="41"/>
-      <c r="H137" s="41"/>
-      <c r="I137" s="41"/>
-      <c r="J137" s="41"/>
-      <c r="K137" s="41"/>
+      <c r="G137" s="29"/>
+      <c r="H137" s="29"/>
+      <c r="I137" s="29"/>
+      <c r="J137" s="29"/>
+      <c r="K137" s="29"/>
       <c r="L137" s="3"/>
     </row>
     <row r="138" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B138" s="14"/>
+      <c r="B138" s="43"/>
       <c r="C138" s="4" t="s">
+        <v>231</v>
+      </c>
+      <c r="D138" s="16" t="s">
         <v>232</v>
-      </c>
-      <c r="D138" s="19" t="s">
-        <v>233</v>
       </c>
       <c r="E138" s="5"/>
       <c r="F138" s="5"/>
-      <c r="G138" s="42"/>
-      <c r="H138" s="42"/>
-      <c r="I138" s="42"/>
-      <c r="J138" s="42"/>
-      <c r="K138" s="42"/>
+      <c r="G138" s="30"/>
+      <c r="H138" s="30"/>
+      <c r="I138" s="30"/>
+      <c r="J138" s="30"/>
+      <c r="K138" s="30"/>
       <c r="L138" s="5"/>
     </row>
     <row r="139" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B139" s="14"/>
+      <c r="B139" s="43"/>
       <c r="C139" s="4" t="s">
+        <v>233</v>
+      </c>
+      <c r="D139" s="16" t="s">
         <v>234</v>
-      </c>
-      <c r="D139" s="19" t="s">
-        <v>235</v>
       </c>
       <c r="E139" s="5"/>
       <c r="F139" s="5"/>
-      <c r="G139" s="42"/>
-      <c r="H139" s="42"/>
-      <c r="I139" s="42"/>
-      <c r="J139" s="42"/>
-      <c r="K139" s="42"/>
+      <c r="G139" s="30"/>
+      <c r="H139" s="30"/>
+      <c r="I139" s="30"/>
+      <c r="J139" s="30"/>
+      <c r="K139" s="30"/>
       <c r="L139" s="5"/>
     </row>
     <row r="140" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B140" s="21"/>
+      <c r="B140" s="18"/>
       <c r="C140" s="6"/>
-      <c r="D140" s="20"/>
+      <c r="D140" s="17"/>
       <c r="E140" s="8"/>
       <c r="F140" s="8"/>
       <c r="G140" s="12"/>
@@ -4321,147 +4394,147 @@
       <c r="L140" s="8"/>
     </row>
     <row r="141" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B141" s="14" t="s">
+      <c r="B141" s="43" t="s">
+        <v>235</v>
+      </c>
+      <c r="C141" s="20">
+        <v>16.100000000000001</v>
+      </c>
+      <c r="D141" s="15" t="s">
         <v>236</v>
-      </c>
-      <c r="C141" s="23">
-        <v>16.100000000000001</v>
-      </c>
-      <c r="D141" s="18" t="s">
-        <v>237</v>
       </c>
       <c r="E141" s="3"/>
       <c r="F141" s="3"/>
-      <c r="G141" s="41"/>
-      <c r="H141" s="41"/>
-      <c r="I141" s="41"/>
-      <c r="J141" s="41"/>
-      <c r="K141" s="41"/>
+      <c r="G141" s="29"/>
+      <c r="H141" s="29"/>
+      <c r="I141" s="29"/>
+      <c r="J141" s="29"/>
+      <c r="K141" s="29"/>
       <c r="L141" s="3"/>
     </row>
     <row r="142" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B142" s="14"/>
+      <c r="B142" s="43"/>
       <c r="C142" s="4" t="s">
+        <v>237</v>
+      </c>
+      <c r="D142" s="16" t="s">
         <v>238</v>
-      </c>
-      <c r="D142" s="19" t="s">
-        <v>239</v>
       </c>
       <c r="E142" s="5"/>
       <c r="F142" s="5"/>
-      <c r="G142" s="42"/>
-      <c r="H142" s="42"/>
-      <c r="I142" s="42"/>
-      <c r="J142" s="42"/>
-      <c r="K142" s="42"/>
+      <c r="G142" s="30"/>
+      <c r="H142" s="30"/>
+      <c r="I142" s="30"/>
+      <c r="J142" s="30"/>
+      <c r="K142" s="30"/>
       <c r="L142" s="5"/>
     </row>
     <row r="143" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B143" s="14"/>
+      <c r="B143" s="43"/>
       <c r="C143" s="4" t="s">
+        <v>239</v>
+      </c>
+      <c r="D143" s="16" t="s">
         <v>240</v>
-      </c>
-      <c r="D143" s="19" t="s">
-        <v>241</v>
       </c>
       <c r="E143" s="5"/>
       <c r="F143" s="5"/>
-      <c r="G143" s="42"/>
-      <c r="H143" s="42"/>
-      <c r="I143" s="42"/>
-      <c r="J143" s="42"/>
-      <c r="K143" s="42"/>
+      <c r="G143" s="30"/>
+      <c r="H143" s="30"/>
+      <c r="I143" s="30"/>
+      <c r="J143" s="30"/>
+      <c r="K143" s="30"/>
       <c r="L143" s="5"/>
     </row>
     <row r="144" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B144" s="14"/>
+      <c r="B144" s="43"/>
       <c r="C144" s="4" t="s">
+        <v>241</v>
+      </c>
+      <c r="D144" s="16" t="s">
         <v>242</v>
-      </c>
-      <c r="D144" s="19" t="s">
-        <v>243</v>
       </c>
       <c r="E144" s="5"/>
       <c r="F144" s="5"/>
-      <c r="G144" s="42"/>
-      <c r="H144" s="42"/>
-      <c r="I144" s="42"/>
-      <c r="J144" s="42"/>
-      <c r="K144" s="42"/>
+      <c r="G144" s="30"/>
+      <c r="H144" s="30"/>
+      <c r="I144" s="30"/>
+      <c r="J144" s="30"/>
+      <c r="K144" s="30"/>
       <c r="L144" s="5"/>
     </row>
     <row r="145" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B145" s="14"/>
+      <c r="B145" s="43"/>
       <c r="C145" s="4" t="s">
+        <v>243</v>
+      </c>
+      <c r="D145" s="16" t="s">
         <v>244</v>
-      </c>
-      <c r="D145" s="19" t="s">
-        <v>245</v>
       </c>
       <c r="E145" s="5"/>
       <c r="F145" s="5"/>
-      <c r="G145" s="42"/>
-      <c r="H145" s="42"/>
-      <c r="I145" s="42"/>
-      <c r="J145" s="42"/>
-      <c r="K145" s="42"/>
+      <c r="G145" s="30"/>
+      <c r="H145" s="30"/>
+      <c r="I145" s="30"/>
+      <c r="J145" s="30"/>
+      <c r="K145" s="30"/>
       <c r="L145" s="5"/>
     </row>
     <row r="146" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B146" s="14"/>
+      <c r="B146" s="43"/>
       <c r="C146" s="4" t="s">
+        <v>245</v>
+      </c>
+      <c r="D146" s="16" t="s">
         <v>246</v>
-      </c>
-      <c r="D146" s="19" t="s">
-        <v>247</v>
       </c>
       <c r="E146" s="5"/>
       <c r="F146" s="5"/>
-      <c r="G146" s="42"/>
-      <c r="H146" s="42"/>
-      <c r="I146" s="42"/>
-      <c r="J146" s="42"/>
-      <c r="K146" s="42"/>
+      <c r="G146" s="30"/>
+      <c r="H146" s="30"/>
+      <c r="I146" s="30"/>
+      <c r="J146" s="30"/>
+      <c r="K146" s="30"/>
       <c r="L146" s="5"/>
     </row>
     <row r="147" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B147" s="14"/>
+      <c r="B147" s="43"/>
       <c r="C147" s="4" t="s">
+        <v>247</v>
+      </c>
+      <c r="D147" s="16" t="s">
         <v>248</v>
-      </c>
-      <c r="D147" s="19" t="s">
-        <v>249</v>
       </c>
       <c r="E147" s="5"/>
       <c r="F147" s="5"/>
-      <c r="G147" s="42"/>
-      <c r="H147" s="42"/>
-      <c r="I147" s="42"/>
-      <c r="J147" s="42"/>
-      <c r="K147" s="42"/>
+      <c r="G147" s="30"/>
+      <c r="H147" s="30"/>
+      <c r="I147" s="30"/>
+      <c r="J147" s="30"/>
+      <c r="K147" s="30"/>
       <c r="L147" s="5"/>
     </row>
     <row r="148" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B148" s="14"/>
+      <c r="B148" s="43"/>
       <c r="C148" s="4" t="s">
+        <v>249</v>
+      </c>
+      <c r="D148" s="16" t="s">
         <v>250</v>
-      </c>
-      <c r="D148" s="19" t="s">
-        <v>251</v>
       </c>
       <c r="E148" s="5"/>
       <c r="F148" s="5"/>
-      <c r="G148" s="42"/>
-      <c r="H148" s="42"/>
-      <c r="I148" s="42"/>
-      <c r="J148" s="42"/>
-      <c r="K148" s="42"/>
+      <c r="G148" s="30"/>
+      <c r="H148" s="30"/>
+      <c r="I148" s="30"/>
+      <c r="J148" s="30"/>
+      <c r="K148" s="30"/>
       <c r="L148" s="5"/>
     </row>
     <row r="149" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B149" s="21"/>
+      <c r="B149" s="18"/>
       <c r="C149" s="6"/>
-      <c r="D149" s="20"/>
+      <c r="D149" s="17"/>
       <c r="E149" s="8"/>
       <c r="F149" s="8"/>
       <c r="G149" s="12"/>
@@ -4472,113 +4545,113 @@
       <c r="L149" s="8"/>
     </row>
     <row r="150" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B150" s="14" t="s">
+      <c r="B150" s="43" t="s">
+        <v>251</v>
+      </c>
+      <c r="C150" s="20">
+        <v>17.100000000000001</v>
+      </c>
+      <c r="D150" s="15" t="s">
         <v>252</v>
-      </c>
-      <c r="C150" s="23">
-        <v>17.100000000000001</v>
-      </c>
-      <c r="D150" s="18" t="s">
-        <v>253</v>
       </c>
       <c r="E150" s="3"/>
       <c r="F150" s="3"/>
-      <c r="G150" s="41"/>
-      <c r="H150" s="41"/>
-      <c r="I150" s="41"/>
-      <c r="J150" s="41"/>
-      <c r="K150" s="41"/>
+      <c r="G150" s="29"/>
+      <c r="H150" s="29"/>
+      <c r="I150" s="29"/>
+      <c r="J150" s="29"/>
+      <c r="K150" s="29"/>
       <c r="L150" s="3"/>
     </row>
     <row r="151" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B151" s="14"/>
+      <c r="B151" s="43"/>
       <c r="C151" s="4" t="s">
+        <v>253</v>
+      </c>
+      <c r="D151" s="16" t="s">
         <v>254</v>
-      </c>
-      <c r="D151" s="19" t="s">
-        <v>255</v>
       </c>
       <c r="E151" s="5"/>
       <c r="F151" s="5"/>
-      <c r="G151" s="42"/>
-      <c r="H151" s="42"/>
-      <c r="I151" s="42"/>
-      <c r="J151" s="42"/>
-      <c r="K151" s="42"/>
+      <c r="G151" s="30"/>
+      <c r="H151" s="30"/>
+      <c r="I151" s="30"/>
+      <c r="J151" s="30"/>
+      <c r="K151" s="30"/>
       <c r="L151" s="5"/>
     </row>
     <row r="152" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B152" s="14"/>
+      <c r="B152" s="43"/>
       <c r="C152" s="4" t="s">
+        <v>255</v>
+      </c>
+      <c r="D152" s="16" t="s">
         <v>256</v>
-      </c>
-      <c r="D152" s="19" t="s">
-        <v>257</v>
       </c>
       <c r="E152" s="5"/>
       <c r="F152" s="5"/>
-      <c r="G152" s="42"/>
-      <c r="H152" s="42"/>
-      <c r="I152" s="42"/>
-      <c r="J152" s="42"/>
-      <c r="K152" s="42"/>
+      <c r="G152" s="30"/>
+      <c r="H152" s="30"/>
+      <c r="I152" s="30"/>
+      <c r="J152" s="30"/>
+      <c r="K152" s="30"/>
       <c r="L152" s="5"/>
     </row>
     <row r="153" spans="2:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B153" s="14"/>
+      <c r="B153" s="43"/>
       <c r="C153" s="4" t="s">
+        <v>257</v>
+      </c>
+      <c r="D153" s="16" t="s">
         <v>258</v>
-      </c>
-      <c r="D153" s="19" t="s">
-        <v>259</v>
       </c>
       <c r="E153" s="5"/>
       <c r="F153" s="5"/>
-      <c r="G153" s="42"/>
-      <c r="H153" s="42"/>
-      <c r="I153" s="42"/>
-      <c r="J153" s="42"/>
-      <c r="K153" s="42"/>
+      <c r="G153" s="30"/>
+      <c r="H153" s="30"/>
+      <c r="I153" s="30"/>
+      <c r="J153" s="30"/>
+      <c r="K153" s="30"/>
       <c r="L153" s="5"/>
     </row>
     <row r="154" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B154" s="14"/>
-      <c r="C154" s="23">
+      <c r="B154" s="43"/>
+      <c r="C154" s="20">
         <v>17.2</v>
       </c>
-      <c r="D154" s="18" t="s">
-        <v>260</v>
+      <c r="D154" s="15" t="s">
+        <v>259</v>
       </c>
       <c r="E154" s="3"/>
       <c r="F154" s="3"/>
-      <c r="G154" s="41"/>
-      <c r="H154" s="41"/>
-      <c r="I154" s="41"/>
-      <c r="J154" s="41"/>
-      <c r="K154" s="41"/>
+      <c r="G154" s="29"/>
+      <c r="H154" s="29"/>
+      <c r="I154" s="29"/>
+      <c r="J154" s="29"/>
+      <c r="K154" s="29"/>
       <c r="L154" s="3"/>
     </row>
     <row r="155" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B155" s="14"/>
+      <c r="B155" s="43"/>
       <c r="C155" s="4" t="s">
+        <v>260</v>
+      </c>
+      <c r="D155" s="16" t="s">
         <v>261</v>
-      </c>
-      <c r="D155" s="19" t="s">
-        <v>262</v>
       </c>
       <c r="E155" s="5"/>
       <c r="F155" s="5"/>
-      <c r="G155" s="42"/>
-      <c r="H155" s="42"/>
-      <c r="I155" s="42"/>
-      <c r="J155" s="42"/>
-      <c r="K155" s="42"/>
+      <c r="G155" s="30"/>
+      <c r="H155" s="30"/>
+      <c r="I155" s="30"/>
+      <c r="J155" s="30"/>
+      <c r="K155" s="30"/>
       <c r="L155" s="5"/>
     </row>
     <row r="156" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B156" s="21"/>
+      <c r="B156" s="18"/>
       <c r="C156" s="6"/>
-      <c r="D156" s="20"/>
+      <c r="D156" s="17"/>
       <c r="E156" s="8"/>
       <c r="F156" s="8"/>
       <c r="G156" s="12"/>
@@ -4589,175 +4662,175 @@
       <c r="L156" s="8"/>
     </row>
     <row r="157" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B157" s="14" t="s">
+      <c r="B157" s="43" t="s">
+        <v>262</v>
+      </c>
+      <c r="C157" s="20">
+        <v>18.100000000000001</v>
+      </c>
+      <c r="D157" s="15" t="s">
         <v>263</v>
-      </c>
-      <c r="C157" s="23">
-        <v>18.100000000000001</v>
-      </c>
-      <c r="D157" s="18" t="s">
-        <v>264</v>
       </c>
       <c r="E157" s="3"/>
       <c r="F157" s="3"/>
-      <c r="G157" s="41"/>
-      <c r="H157" s="41"/>
-      <c r="I157" s="41"/>
-      <c r="J157" s="41"/>
-      <c r="K157" s="41"/>
+      <c r="G157" s="29"/>
+      <c r="H157" s="29"/>
+      <c r="I157" s="29"/>
+      <c r="J157" s="29"/>
+      <c r="K157" s="29"/>
       <c r="L157" s="3"/>
     </row>
     <row r="158" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B158" s="14"/>
+      <c r="B158" s="43"/>
       <c r="C158" s="4" t="s">
+        <v>264</v>
+      </c>
+      <c r="D158" s="16" t="s">
         <v>265</v>
-      </c>
-      <c r="D158" s="19" t="s">
-        <v>266</v>
       </c>
       <c r="E158" s="5"/>
       <c r="F158" s="5"/>
-      <c r="G158" s="42"/>
-      <c r="H158" s="42"/>
-      <c r="I158" s="42"/>
-      <c r="J158" s="42"/>
-      <c r="K158" s="42"/>
+      <c r="G158" s="30"/>
+      <c r="H158" s="30"/>
+      <c r="I158" s="30"/>
+      <c r="J158" s="30"/>
+      <c r="K158" s="30"/>
       <c r="L158" s="5"/>
     </row>
     <row r="159" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B159" s="14"/>
+      <c r="B159" s="43"/>
       <c r="C159" s="4" t="s">
+        <v>266</v>
+      </c>
+      <c r="D159" s="16" t="s">
         <v>267</v>
-      </c>
-      <c r="D159" s="19" t="s">
-        <v>268</v>
       </c>
       <c r="E159" s="5"/>
       <c r="F159" s="5"/>
-      <c r="G159" s="42"/>
-      <c r="H159" s="42"/>
-      <c r="I159" s="42"/>
-      <c r="J159" s="42"/>
-      <c r="K159" s="42"/>
+      <c r="G159" s="30"/>
+      <c r="H159" s="30"/>
+      <c r="I159" s="30"/>
+      <c r="J159" s="30"/>
+      <c r="K159" s="30"/>
       <c r="L159" s="5"/>
     </row>
     <row r="160" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B160" s="14"/>
+      <c r="B160" s="43"/>
       <c r="C160" s="4" t="s">
+        <v>268</v>
+      </c>
+      <c r="D160" s="16" t="s">
         <v>269</v>
-      </c>
-      <c r="D160" s="19" t="s">
-        <v>270</v>
       </c>
       <c r="E160" s="5"/>
       <c r="F160" s="5"/>
-      <c r="G160" s="42"/>
-      <c r="H160" s="42"/>
-      <c r="I160" s="42"/>
-      <c r="J160" s="42"/>
-      <c r="K160" s="42"/>
+      <c r="G160" s="30"/>
+      <c r="H160" s="30"/>
+      <c r="I160" s="30"/>
+      <c r="J160" s="30"/>
+      <c r="K160" s="30"/>
       <c r="L160" s="5"/>
     </row>
     <row r="161" spans="2:12" ht="46.8" x14ac:dyDescent="0.3">
-      <c r="B161" s="14"/>
+      <c r="B161" s="43"/>
       <c r="C161" s="4" t="s">
+        <v>270</v>
+      </c>
+      <c r="D161" s="16" t="s">
         <v>271</v>
-      </c>
-      <c r="D161" s="19" t="s">
-        <v>272</v>
       </c>
       <c r="E161" s="5"/>
       <c r="F161" s="5"/>
-      <c r="G161" s="42"/>
-      <c r="H161" s="42"/>
-      <c r="I161" s="42"/>
-      <c r="J161" s="42"/>
-      <c r="K161" s="42"/>
+      <c r="G161" s="30"/>
+      <c r="H161" s="30"/>
+      <c r="I161" s="30"/>
+      <c r="J161" s="30"/>
+      <c r="K161" s="30"/>
       <c r="L161" s="5"/>
     </row>
     <row r="162" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B162" s="14"/>
+      <c r="B162" s="43"/>
       <c r="C162" s="9" t="s">
+        <v>272</v>
+      </c>
+      <c r="D162" s="16" t="s">
         <v>273</v>
-      </c>
-      <c r="D162" s="19" t="s">
-        <v>274</v>
       </c>
       <c r="E162" s="5"/>
       <c r="F162" s="5"/>
-      <c r="G162" s="42"/>
-      <c r="H162" s="42"/>
-      <c r="I162" s="42"/>
-      <c r="J162" s="42"/>
-      <c r="K162" s="42"/>
+      <c r="G162" s="30"/>
+      <c r="H162" s="30"/>
+      <c r="I162" s="30"/>
+      <c r="J162" s="30"/>
+      <c r="K162" s="30"/>
       <c r="L162" s="5"/>
     </row>
     <row r="163" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B163" s="14"/>
-      <c r="C163" s="23">
+      <c r="B163" s="43"/>
+      <c r="C163" s="20">
         <v>18.2</v>
       </c>
-      <c r="D163" s="18" t="s">
-        <v>275</v>
+      <c r="D163" s="15" t="s">
+        <v>274</v>
       </c>
       <c r="E163" s="3"/>
       <c r="F163" s="3"/>
-      <c r="G163" s="41"/>
-      <c r="H163" s="41"/>
-      <c r="I163" s="41"/>
-      <c r="J163" s="41"/>
-      <c r="K163" s="41"/>
+      <c r="G163" s="29"/>
+      <c r="H163" s="29"/>
+      <c r="I163" s="29"/>
+      <c r="J163" s="29"/>
+      <c r="K163" s="29"/>
       <c r="L163" s="3"/>
     </row>
     <row r="164" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B164" s="14"/>
+      <c r="B164" s="43"/>
       <c r="C164" s="4" t="s">
+        <v>275</v>
+      </c>
+      <c r="D164" s="16" t="s">
         <v>276</v>
-      </c>
-      <c r="D164" s="19" t="s">
-        <v>277</v>
       </c>
       <c r="E164" s="5"/>
       <c r="F164" s="5"/>
-      <c r="G164" s="42"/>
-      <c r="H164" s="42"/>
-      <c r="I164" s="42"/>
-      <c r="J164" s="42"/>
-      <c r="K164" s="42"/>
+      <c r="G164" s="30"/>
+      <c r="H164" s="30"/>
+      <c r="I164" s="30"/>
+      <c r="J164" s="30"/>
+      <c r="K164" s="30"/>
       <c r="L164" s="5"/>
     </row>
     <row r="165" spans="2:12" ht="31.2" x14ac:dyDescent="0.3">
-      <c r="B165" s="14"/>
+      <c r="B165" s="43"/>
       <c r="C165" s="4" t="s">
+        <v>277</v>
+      </c>
+      <c r="D165" s="16" t="s">
         <v>278</v>
-      </c>
-      <c r="D165" s="19" t="s">
-        <v>279</v>
       </c>
       <c r="E165" s="5"/>
       <c r="F165" s="5"/>
-      <c r="G165" s="42"/>
-      <c r="H165" s="42"/>
-      <c r="I165" s="42"/>
-      <c r="J165" s="42"/>
-      <c r="K165" s="42"/>
+      <c r="G165" s="30"/>
+      <c r="H165" s="30"/>
+      <c r="I165" s="30"/>
+      <c r="J165" s="30"/>
+      <c r="K165" s="30"/>
       <c r="L165" s="5"/>
     </row>
     <row r="166" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
-      <c r="B166" s="14"/>
+      <c r="B166" s="43"/>
       <c r="C166" s="4" t="s">
+        <v>279</v>
+      </c>
+      <c r="D166" s="16" t="s">
         <v>280</v>
-      </c>
-      <c r="D166" s="19" t="s">
-        <v>281</v>
       </c>
       <c r="E166" s="5"/>
       <c r="F166" s="5"/>
-      <c r="G166" s="42"/>
-      <c r="H166" s="42"/>
-      <c r="I166" s="42"/>
-      <c r="J166" s="42"/>
-      <c r="K166" s="42"/>
+      <c r="G166" s="30"/>
+      <c r="H166" s="30"/>
+      <c r="I166" s="30"/>
+      <c r="J166" s="30"/>
+      <c r="K166" s="30"/>
       <c r="L166" s="5"/>
     </row>
     <row r="167" spans="2:12" ht="15.6" x14ac:dyDescent="0.3">
@@ -4776,16 +4849,6 @@
   </sheetData>
   <dataConsolidate/>
   <mergeCells count="19">
-    <mergeCell ref="B2:D3"/>
-    <mergeCell ref="E2:E3"/>
-    <mergeCell ref="F2:F3"/>
-    <mergeCell ref="G2:K2"/>
-    <mergeCell ref="L2:L3"/>
-    <mergeCell ref="B5:B7"/>
-    <mergeCell ref="B9:B17"/>
-    <mergeCell ref="B19:B27"/>
-    <mergeCell ref="B29:B41"/>
-    <mergeCell ref="B43:B60"/>
     <mergeCell ref="B133:B139"/>
     <mergeCell ref="B141:B148"/>
     <mergeCell ref="B150:B155"/>
@@ -4795,8 +4858,19 @@
     <mergeCell ref="B84:B104"/>
     <mergeCell ref="B106:B114"/>
     <mergeCell ref="B116:B131"/>
+    <mergeCell ref="B5:B7"/>
+    <mergeCell ref="B9:B17"/>
+    <mergeCell ref="B19:B27"/>
+    <mergeCell ref="B29:B41"/>
+    <mergeCell ref="B43:B60"/>
+    <mergeCell ref="B2:D3"/>
+    <mergeCell ref="E2:E3"/>
+    <mergeCell ref="F2:F3"/>
+    <mergeCell ref="G2:K2"/>
+    <mergeCell ref="L2:L3"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{CCE6A557-97BC-4b89-ADB6-D9C93CAAB3DF}">
       <x14:dataValidations xmlns:xm="http://schemas.microsoft.com/office/excel/2006/main" count="1">
